--- a/olympus/M213.xlsx
+++ b/olympus/M213.xlsx
@@ -245,142 +245,142 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2022-05-15 23:00:00</t>
+          <t>2022-05-15 22:00:00</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.17258533835411072</v>
+        <v>0.07829000055789948</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.18667012453079224</v>
+        <v>0.182183638215065</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.3188495635986328</v>
+        <v>1.230268120765686</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.3321659564971924</v>
+        <v>1.2238389253616333</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.754800021648407</v>
+        <v>3.09060001373291</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>40.45648956298828</v>
+        <v>40.62800979614258</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>-73.8521957397461</v>
+        <v>-74.05299377441406</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1008.4090576171875</v>
+        <v>1008.2542114257812</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0.699999988079071</v>
+        <v>2.4000000953674316</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>0.800000011920929</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>0.799797773361206</v>
+        <v>2.5</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>0.800000011920929</v>
+        <v>2.4000000953674316</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>10.199999809265137</v>
+        <v>14.233372688293457</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>19.017192840576172</v>
+        <v>21.316791534423828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2022-05-16 01:00:00</t>
+          <t>2022-05-15 23:00:00</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.2611880898475647</v>
+        <v>0.17258533835411072</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.1956431269645691</v>
+        <v>0.18667012453079224</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.2122044563293457</v>
+        <v>1.3188495635986328</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.2823562622070312</v>
+        <v>0.0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.289341688156128</v>
+        <v>1.3321659564971924</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.0</v>
+        <v>0.754800021648407</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>40.37516784667969</v>
+        <v>40.45648956298828</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>-73.16803741455078</v>
+        <v>-73.8521957397461</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1008.8748168945312</v>
+        <v>1008.4090576171875</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.800000190734863</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>7.700000286102295</v>
+        <v>0.799797773361206</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.700000286102295</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>21.44991111755371</v>
+        <v>10.199999809265137</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>16.21982765197754</v>
+        <v>19.017192840576172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2022-05-16 03:00:00</t>
+          <t>2022-05-16 00:00:00</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.21747933328151703</v>
+        <v>0.2746722102165222</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.20461612939834595</v>
+        <v>0.19115662574768066</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.417433977127075</v>
+        <v>1.508354902267456</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.252723217010498</v>
+        <v>1.550967812538147</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.4963629245758057</v>
+        <v>1.5026040077209473</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>0.0</v>
@@ -389,56 +389,56 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>40.38359832763672</v>
+        <v>40.41099166870117</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>-72.18180847167969</v>
+        <v>-73.56491088867188</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1009.340576171875</v>
+        <v>1008.6419067382812</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>3.9000000953674316</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>4.200000286102295</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>4.200000286102295</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>4.0</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>23.381839752197266</v>
+        <v>17.899999618530273</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>14.212310791015625</v>
+        <v>17.194196701049805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2022-05-16 05:00:00</t>
+          <t>2022-05-16 01:00:00</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.26632070541381836</v>
+        <v>0.2611880898475647</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.2135891169309616</v>
+        <v>0.1956431269645691</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.468850612640381</v>
+        <v>2.2122044563293457</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.2723045349121094</v>
+        <v>2.2823562622070312</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.5549542903900146</v>
+        <v>2.289341688156128</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0.0</v>
@@ -447,56 +447,56 @@
         <v>0.0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>40.40015411376953</v>
+        <v>40.37516784667969</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>-71.19728088378906</v>
+        <v>-73.16803741455078</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1009.798583984375</v>
+        <v>1008.8748168945312</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.5</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>21.899999618530273</v>
+        <v>21.44991111755371</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>15.91634750366211</v>
+        <v>16.21982765197754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2022-05-16 07:00:00</t>
+          <t>2022-05-16 02:00:00</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.23926396667957306</v>
+        <v>0.22928486764431</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.22256211936473846</v>
+        <v>0.20012962818145752</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.4648780822753906</v>
+        <v>2.458616018295288</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.257441520690918</v>
+        <v>2.262559413909912</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.550053119659424</v>
+        <v>2.4946508407592773</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>0.0</v>
@@ -505,56 +505,56 @@
         <v>0.0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>40.41805648803711</v>
+        <v>40.39027786254883</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>-70.21154022216797</v>
+        <v>-72.67485046386719</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1009.6930541992188</v>
+        <v>1009.1077270507812</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>23.700101852416992</v>
+        <v>22.6003360748291</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>16.519418716430664</v>
+        <v>15.483339309692383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2022-05-16 09:00:00</t>
+          <t>2022-05-16 03:00:00</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.24286416172981262</v>
+        <v>0.21747933328151703</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.23153512179851532</v>
+        <v>0.20461612939834595</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.539461612701416</v>
+        <v>2.417433977127075</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.3250818252563477</v>
+        <v>2.252723217010498</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.608844518661499</v>
+        <v>2.4963629245758057</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>0.0</v>
@@ -563,56 +563,56 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>40.43351745605469</v>
+        <v>40.38359832763672</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>-69.25347137451172</v>
+        <v>-72.18180847167969</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1009.5875244140625</v>
+        <v>1009.340576171875</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>9.0</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.0</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>22.300180435180664</v>
+        <v>23.381839752197266</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>16.508773803710938</v>
+        <v>14.212310791015625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2022-05-16 11:00:00</t>
+          <t>2022-05-16 04:00:00</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.27877113223075867</v>
+        <v>0.2273683249950409</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.24050812423229218</v>
+        <v>0.20910263061523438</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2.51507568359375</v>
+        <v>2.4142813682556152</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.314105749130249</v>
+        <v>2.214160680770874</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.5769617557525635</v>
+        <v>2.482508420944214</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>0.0</v>
@@ -621,56 +621,56 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>40.47525405883789</v>
+        <v>40.39276123046875</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>-68.30660247802734</v>
+        <v>-71.6895523071289</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1009.4819946289062</v>
+        <v>1009.573486328125</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.5</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.0</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.5</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>24.000335693359375</v>
+        <v>22.449899673461914</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>18.615163803100586</v>
+        <v>14.514852523803711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2022-05-16 13:00:00</t>
+          <t>2022-05-16 05:00:00</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.29823049902915955</v>
+        <v>0.26632070541381836</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.24948111176490784</v>
+        <v>0.2135891169309616</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2.4209253787994385</v>
+        <v>2.468850612640381</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.2194714546203613</v>
+        <v>2.2723045349121094</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.4969611167907715</v>
+        <v>2.5549542903900146</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0.0</v>
@@ -679,56 +679,56 @@
         <v>0.0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>40.56338119506836</v>
+        <v>40.40015411376953</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>-67.33773040771484</v>
+        <v>-71.19728088378906</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1009.37646484375</v>
+        <v>1009.798583984375</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N10" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P10" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="O10" s="2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>8.199999809265137</v>
-      </c>
       <c r="Q10" s="2" t="n">
-        <v>23.799964904785156</v>
+        <v>21.899999618530273</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>20.786945343017578</v>
+        <v>15.91634750366211</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2022-05-16 15:00:00</t>
+          <t>2022-05-16 06:00:00</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.2196883261203766</v>
+        <v>0.4002986550331116</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.017813950777053833</v>
+        <v>0.21807561814785004</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2.5582125186920166</v>
+        <v>2.4781157970428467</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.2916922569274902</v>
+        <v>2.2797210216522217</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.6307575702667236</v>
+        <v>2.5647757053375244</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>0.0</v>
@@ -737,56 +737,56 @@
         <v>0.0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>40.80329513549805</v>
+        <v>40.409202575683594</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>-66.39502716064453</v>
+        <v>-70.70390319824219</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1009.2709350585938</v>
+        <v>1009.745849609375</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>8.800000190734863</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.5</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>22.999866485595703</v>
+        <v>22.39959716796875</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>23.13812828063965</v>
+        <v>16.200000762939453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>2022-05-16 17:00:00</t>
+          <t>2022-05-16 07:00:00</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.2282344102859497</v>
+        <v>0.23926396667957306</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.039654336869716644</v>
+        <v>0.22256211936473846</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2.569675922393799</v>
+        <v>2.4648780822753906</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.3344016075134277</v>
+        <v>2.257441520690918</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.653928518295288</v>
+        <v>2.550053119659424</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>0.0</v>
@@ -795,56 +795,56 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>41.087223052978516</v>
+        <v>40.41805648803711</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>-65.43370819091797</v>
+        <v>-70.21154022216797</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1009.1653442382812</v>
+        <v>1009.6930541992188</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>8.800000190734863</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.0</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>23.30040168762207</v>
+        <v>23.700101852416992</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>26.357515335083008</v>
+        <v>16.519418716430664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>2022-05-16 19:00:00</t>
+          <t>2022-05-16 08:00:00</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.178933784365654</v>
+        <v>0.17604508996009827</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.061494722962379456</v>
+        <v>0.2270486205816269</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2.5450921058654785</v>
+        <v>2.494499444961548</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.339465618133545</v>
+        <v>2.286778450012207</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.6377475261688232</v>
+        <v>2.574252128601074</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>0.0</v>
@@ -853,56 +853,56 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>41.35645294189453</v>
+        <v>40.42677307128906</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>-64.48899841308594</v>
+        <v>-69.72977447509766</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1009.16455078125</v>
+        <v>1009.6403198242188</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>9.0</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.5</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>21.899898529052734</v>
+        <v>23.150114059448242</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>25.058279037475586</v>
+        <v>16.399999618530273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2022-05-16 21:00:00</t>
+          <t>2022-05-16 09:00:00</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.22487252950668335</v>
+        <v>0.24286416172981262</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.08333510905504227</v>
+        <v>0.23153512179851532</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2.5743227005004883</v>
+        <v>2.539461612701416</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.3381705284118652</v>
+        <v>2.3250818252563477</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.6073246002197266</v>
+        <v>2.608844518661499</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>0.0</v>
@@ -911,56 +911,56 @@
         <v>0.0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>41.60834884643555</v>
+        <v>40.43351745605469</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>-63.569725036621094</v>
+        <v>-69.25347137451172</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1009.334228515625</v>
+        <v>1009.5875244140625</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>9.0</v>
       </c>
       <c r="N14" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="O14" s="2" t="n">
         <v>8.800000190734863</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>8.100000381469727</v>
-      </c>
       <c r="P14" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>9.0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>22.8498477935791</v>
+        <v>22.300180435180664</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>20.980478286743164</v>
+        <v>16.508773803710938</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>2022-05-16 23:00:00</t>
+          <t>2022-05-16 10:00:00</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.23749932646751404</v>
+        <v>0.2623548209667206</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.10517549514770508</v>
+        <v>0.23602162301540375</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2.536728620529175</v>
+        <v>2.5176799297332764</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.318178653717041</v>
+        <v>2.312127113342285</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.625995397567749</v>
+        <v>2.576590061187744</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>0.0</v>
@@ -969,56 +969,56 @@
         <v>0.0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>41.839542388916016</v>
+        <v>40.44364547729492</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>-62.67124938964844</v>
+        <v>-68.78327941894531</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1009.5039672851562</v>
+        <v>1009.5347900390625</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>8.800000190734863</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>8.5</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>21.900100708007812</v>
+        <v>23.200000762939453</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>19.39849090576172</v>
+        <v>17.354595184326172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>2022-05-17 01:00:00</t>
+          <t>2022-05-16 11:00:00</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.26398882269859314</v>
+        <v>0.27877113223075867</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.1270158886909485</v>
+        <v>0.24050812423229218</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2.5032880306243896</v>
+        <v>2.51507568359375</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.3198843002319336</v>
+        <v>2.314105749130249</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.597641944885254</v>
+        <v>2.5769617557525635</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>0.0</v>
@@ -1027,56 +1027,56 @@
         <v>0.0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>42.076351165771484</v>
+        <v>40.47525405883789</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>-61.768856048583984</v>
+        <v>-68.30660247802734</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1009.6736450195312</v>
+        <v>1009.4819946289062</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>8.5</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>22.699798583984375</v>
+        <v>24.000335693359375</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>17.576826095581055</v>
+        <v>18.615163803100586</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>2022-05-17 03:00:00</t>
+          <t>2022-05-16 12:00:00</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.18241572380065918</v>
+        <v>0.29296788573265076</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.1488562673330307</v>
+        <v>0.2449946105480194</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2.4556736946105957</v>
+        <v>2.512861728668213</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.2663376331329346</v>
+        <v>2.3009257316589355</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.531277656555176</v>
+        <v>2.6080121994018555</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>0.0</v>
@@ -1085,56 +1085,56 @@
         <v>0.0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>42.299137115478516</v>
+        <v>40.50741958618164</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>-60.84122085571289</v>
+        <v>-67.81841278076172</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1009.8433227539062</v>
+        <v>1009.42919921875</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="N17" s="2" t="n">
         <v>8.800000190734863</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>22.81534194946289</v>
+        <v>23.800498962402344</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>18.484928131103516</v>
+        <v>19.394182205200195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2022-05-17 05:00:00</t>
+          <t>2022-05-16 13:00:00</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.18143536150455475</v>
+        <v>0.29823049902915955</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.1706966608762741</v>
+        <v>0.24948111176490784</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2.487126111984253</v>
+        <v>2.4209253787994385</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.3247504234313965</v>
+        <v>2.2194714546203613</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.5464000701904297</v>
+        <v>2.4969611167907715</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>0.0</v>
@@ -1143,56 +1143,56 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>42.51979064941406</v>
+        <v>40.56338119506836</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>-59.91987228393555</v>
+        <v>-67.33773040771484</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1010.0130615234375</v>
+        <v>1009.37646484375</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>9.0</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>9.0</v>
+        <v>8.5</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>8.5</v>
+        <v>8.0</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>22.550750732421875</v>
+        <v>23.799964904785156</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>19.132902145385742</v>
+        <v>20.786945343017578</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2022-05-17 07:00:00</t>
+          <t>2022-05-16 14:00:00</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.3823235332965851</v>
+        <v>0.32927894592285156</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.19253703951835632</v>
+        <v>0.00689375726506114</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2.4768261909484863</v>
+        <v>2.5744309425354004</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.3137969970703125</v>
+        <v>2.303532123565674</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.542982816696167</v>
+        <v>2.6436641216278076</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>0.0</v>
@@ -1201,56 +1201,56 @@
         <v>0.0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>42.73827362060547</v>
+        <v>40.666751861572266</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>-58.950950622558594</v>
+        <v>-66.86197662353516</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1010.1827392578125</v>
+        <v>1009.3236694335938</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>9.0</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O19" s="2" t="n">
         <v>8.300000190734863</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>23.333688735961914</v>
+        <v>22.899999618530273</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>18.958236694335938</v>
+        <v>21.11553955078125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2022-05-17 09:00:00</t>
+          <t>2022-05-16 15:00:00</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.22049091756343842</v>
+        <v>0.2196883261203766</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.21437743306159973</v>
+        <v>0.017813950777053833</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.5545341968536377</v>
+        <v>2.5582125186920166</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.3990957736968994</v>
+        <v>2.2916922569274902</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.6625630855560303</v>
+        <v>2.6307575702667236</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>0.0</v>
@@ -1259,56 +1259,56 @@
         <v>0.0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>42.94376754760742</v>
+        <v>40.80329513549805</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>-57.997459411621094</v>
+        <v>-66.39502716064453</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1010.3524780273438</v>
+        <v>1009.2709350585938</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O20" s="2" t="n">
+        <v>8.40000057220459</v>
+      </c>
+      <c r="P20" s="2" t="n">
         <v>8.600000381469727</v>
       </c>
-      <c r="P20" s="2" t="n">
-        <v>8.800000190734863</v>
-      </c>
       <c r="Q20" s="2" t="n">
-        <v>23.0</v>
+        <v>22.999866485595703</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>18.307798385620117</v>
+        <v>23.13812828063965</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2022-05-17 11:00:00</t>
+          <t>2022-05-16 16:00:00</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.21839718520641327</v>
+        <v>0.193343386054039</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.23621782660484314</v>
+        <v>0.02873414382338524</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2.578845977783203</v>
+        <v>2.5550355911254883</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.4152398109436035</v>
+        <v>2.351522922515869</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.645265579223633</v>
+        <v>2.6476986408233643</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>0.0</v>
@@ -1317,56 +1317,56 @@
         <v>0.0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>43.14155197143555</v>
+        <v>40.944480895996094</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-57.03553771972656</v>
+        <v>-65.9218521118164</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1010.5221557617188</v>
+        <v>1009.2181396484375</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>22.45008659362793</v>
+        <v>22.999561309814453</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>15.113296508789062</v>
+        <v>26.42543601989746</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2022-05-17 13:00:00</t>
+          <t>2022-05-16 17:00:00</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.11153823882341385</v>
+        <v>0.2282344102859497</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.18366236984729767</v>
+        <v>0.039654336869716644</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2.6581802368164062</v>
+        <v>2.569675922393799</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.422759532928467</v>
+        <v>2.3344016075134277</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.6969428062438965</v>
+        <v>2.653928518295288</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0.0</v>
@@ -1375,56 +1375,56 @@
         <v>0.0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>43.331729888916016</v>
+        <v>41.087223052978516</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>-56.06421661376953</v>
+        <v>-65.43370819091797</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1010.69189453125</v>
+        <v>1009.1653442382812</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>21.999500274658203</v>
+        <v>23.30040168762207</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>14.98243522644043</v>
+        <v>26.357515335083008</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2022-05-17 15:00:00</t>
+          <t>2022-05-16 18:00:00</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.21744152903556824</v>
+        <v>0.18727166950702667</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.003622638527303934</v>
+        <v>0.05057452991604805</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2.6471335887908936</v>
+        <v>2.5050439834594727</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.422811985015869</v>
+        <v>2.31581449508667</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.7037107944488525</v>
+        <v>2.6351842880249023</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>0.0</v>
@@ -1433,56 +1433,56 @@
         <v>0.0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>43.51515197753906</v>
+        <v>41.225650787353516</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>-55.07976150512695</v>
+        <v>-64.95228576660156</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1010.861572265625</v>
+        <v>1009.1126098632812</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>9.5</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>21.3502254486084</v>
+        <v>22.799999237060547</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>14.956144332885742</v>
+        <v>27.16701889038086</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2022-05-17 17:00:00</t>
+          <t>2022-05-16 19:00:00</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.22269220650196075</v>
+        <v>0.178933784365654</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.014563091099262238</v>
+        <v>0.061494722962379456</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2.5556588172912598</v>
+        <v>2.5450921058654785</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.3399672508239746</v>
+        <v>2.339465618133545</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.6717915534973145</v>
+        <v>2.6377475261688232</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>0.0</v>
@@ -1491,56 +1491,56 @@
         <v>0.0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>43.68559646606445</v>
+        <v>41.35645294189453</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>-54.11551284790039</v>
+        <v>-64.48899841308594</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1011.3792114257812</v>
+        <v>1009.16455078125</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>9.0</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.5</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>22.998802185058594</v>
+        <v>21.899898529052734</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>14.061180114746094</v>
+        <v>25.058279037475586</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2022-05-17 19:00:00</t>
+          <t>2022-05-16 20:00:00</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.23461413383483887</v>
+        <v>0.23014992475509644</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.02550354413688183</v>
+        <v>0.07241491973400116</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>2.5761847496032715</v>
+        <v>2.4322025775909424</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.3546905517578125</v>
+        <v>2.246983289718628</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.6802432537078857</v>
+        <v>2.525752067565918</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>0.0</v>
@@ -1549,56 +1549,56 @@
         <v>0.0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>43.84105682373047</v>
+        <v>41.486637115478516</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>-53.18521499633789</v>
+        <v>-64.01927947998047</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1011.998779296875</v>
+        <v>1009.2493896484375</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>21.50040054321289</v>
+        <v>23.199800491333008</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>10.314796447753906</v>
+        <v>21.5185489654541</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2022-05-17 21:00:00</t>
+          <t>2022-05-16 21:00:00</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.28294649720191956</v>
+        <v>0.22487252950668335</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.03644399717450142</v>
+        <v>0.08333510905504227</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.5172715187072754</v>
+        <v>2.5743227005004883</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.326922655105591</v>
+        <v>2.3381705284118652</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.6206464767456055</v>
+        <v>2.6073246002197266</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0.0</v>
@@ -1607,56 +1607,56 @@
         <v>0.0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>43.969139099121094</v>
+        <v>41.60834884643555</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>-52.261741638183594</v>
+        <v>-63.569725036621094</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1012.6183471679688</v>
+        <v>1009.334228515625</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="N26" s="2" t="n">
         <v>8.800000190734863</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>8.5</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>21.29939842224121</v>
+        <v>22.8498477935791</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>10.414721488952637</v>
+        <v>20.980478286743164</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2022-05-17 23:00:00</t>
+          <t>2022-05-16 22:00:00</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.3341086506843567</v>
+        <v>0.20394223928451538</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.04738444834947586</v>
+        <v>0.09425530582666397</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2.5368480682373047</v>
+        <v>2.4962995052337646</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.3369829654693604</v>
+        <v>2.2923991680145264</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.665158271789551</v>
+        <v>2.606658458709717</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>0.0</v>
@@ -1665,56 +1665,56 @@
         <v>0.0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>44.127384185791016</v>
+        <v>41.72850036621094</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>-51.32520294189453</v>
+        <v>-63.12071228027344</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1014.5100708007812</v>
+        <v>1009.4190673828125</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>9.0</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>9.0</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>22.097997665405273</v>
+        <v>22.439437866210938</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>9.16651439666748</v>
+        <v>19.971967697143555</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2022-05-18 01:00:00</t>
+          <t>2022-05-16 23:00:00</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.33920469880104065</v>
+        <v>0.23749932646751404</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.0583248995244503</v>
+        <v>0.10517549514770508</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>2.5500948429107666</v>
+        <v>2.536728620529175</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.2882864475250244</v>
+        <v>2.318178653717041</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.6007614135742188</v>
+        <v>2.625995397567749</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0.0</v>
@@ -1723,56 +1723,56 @@
         <v>0.0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>44.26180648803711</v>
+        <v>41.839542388916016</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>-50.36875915527344</v>
+        <v>-62.67124938964844</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1015.0033569335938</v>
+        <v>1009.5039672851562</v>
       </c>
       <c r="M28" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="N28" s="2" t="n">
         <v>8.90000057220459</v>
       </c>
-      <c r="N28" s="2" t="n">
-        <v>9.199999809265137</v>
-      </c>
       <c r="O28" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.5</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>21.100000381469727</v>
+        <v>21.900100708007812</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>8.14883041381836</v>
+        <v>19.39849090576172</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2022-05-18 03:00:00</t>
+          <t>2022-05-17 00:00:00</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.3264928460121155</v>
+        <v>0.2715281546115875</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.06926535069942474</v>
+        <v>0.11609569191932678</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>2.4965269565582275</v>
+        <v>2.5431697368621826</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.2867398262023926</v>
+        <v>2.3316550254821777</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.5611772537231445</v>
+        <v>2.6463358402252197</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>0.0</v>
@@ -1781,56 +1781,56 @@
         <v>0.0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>44.39054489135742</v>
+        <v>41.9241943359375</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>-49.389705657958984</v>
+        <v>-62.20886993408203</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1014.8685913085938</v>
+        <v>1009.5888061523438</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>9.0</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>8.5</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>21.5666446685791</v>
+        <v>22.200050354003906</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>7.058260440826416</v>
+        <v>18.748926162719727</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2022-05-18 05:00:00</t>
+          <t>2022-05-17 01:00:00</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.35678842663764954</v>
+        <v>0.26398882269859314</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.08020580559968948</v>
+        <v>0.1270158886909485</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>2.552189826965332</v>
+        <v>2.5032880306243896</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.64888072013855</v>
+        <v>2.3198843002319336</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.657527208328247</v>
+        <v>2.597641944885254</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0.0</v>
@@ -1839,56 +1839,56 @@
         <v>0.0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>44.528076171875</v>
+        <v>42.076351165771484</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>-48.41664123535156</v>
+        <v>-61.768856048583984</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1014.7338256835938</v>
+        <v>1009.6736450195312</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>21.90012550354004</v>
+        <v>22.699798583984375</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>7.728068828582764</v>
+        <v>17.576826095581055</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2022-05-18 07:00:00</t>
+          <t>2022-05-17 02:00:00</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.23287846148014069</v>
+        <v>0.2297593057155609</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.09114626049995422</v>
+        <v>0.1379360854625702</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>2.6456985473632812</v>
+        <v>2.4916813373565674</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.7055835723876953</v>
+        <v>2.313929319381714</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.7533719539642334</v>
+        <v>2.5713515281677246</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>0.0</v>
@@ -1897,56 +1897,56 @@
         <v>0.0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>44.84464645385742</v>
+        <v>42.19124984741211</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>-47.465999603271484</v>
+        <v>-61.30372619628906</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1014.5990600585938</v>
+        <v>1009.7584838867188</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>10.100000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>10.0</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>22.828350067138672</v>
+        <v>23.699798583984375</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>8.36402416229248</v>
+        <v>17.51169776916504</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>2022-05-18 09:00:00</t>
+          <t>2022-05-17 03:00:00</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.27641475200653076</v>
+        <v>0.18241572380065918</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.10208670794963837</v>
+        <v>0.1488562673330307</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2.485652446746826</v>
+        <v>2.4556736946105957</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.6079554557800293</v>
+        <v>2.2663376331329346</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.5813753604888916</v>
+        <v>2.531277656555176</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0.0</v>
@@ -1955,56 +1955,56 @@
         <v>0.0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>45.14872360229492</v>
+        <v>42.299137115478516</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>-46.51744842529297</v>
+        <v>-60.84122085571289</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1014.4642944335938</v>
+        <v>1009.8433227539062</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>9.5</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>23.796499252319336</v>
+        <v>22.81534194946289</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>7.3032145500183105</v>
+        <v>18.484928131103516</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>2022-05-18 11:00:00</t>
+          <t>2022-05-17 04:00:00</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.3047454357147217</v>
+        <v>0.17694568634033203</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.1130271628499031</v>
+        <v>0.1597764641046524</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>2.6575582027435303</v>
+        <v>2.4646949768066406</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.7593209743499756</v>
+        <v>2.2971889972686768</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.7257609367370605</v>
+        <v>2.5304107666015625</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>0.0</v>
@@ -2013,56 +2013,56 @@
         <v>0.0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>45.44054412841797</v>
+        <v>42.41437911987305</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>-45.57398223876953</v>
+        <v>-60.37288284301758</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1014.3295288085938</v>
+        <v>1009.92822265625</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>9.90000057220459</v>
+        <v>8.700499534606934</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>9.90000057220459</v>
+        <v>8.999000549316406</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>9.5</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>9.5</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>22.500301361083984</v>
+        <v>22.200584411621094</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>7.548211097717285</v>
+        <v>19.399999618530273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>2022-05-18 13:00:00</t>
+          <t>2022-05-17 05:00:00</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.3274540901184082</v>
+        <v>0.18143536150455475</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.12396761775016785</v>
+        <v>0.1706966608762741</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2.672433614730835</v>
+        <v>2.487126111984253</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.811812400817871</v>
+        <v>2.3247504234313965</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.7398390769958496</v>
+        <v>2.5464000701904297</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>0.0</v>
@@ -2071,56 +2071,56 @@
         <v>0.0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>45.73115158081055</v>
+        <v>42.51979064941406</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>-44.5985107421875</v>
+        <v>-59.91987228393555</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1014.17626953125</v>
+        <v>1010.0130615234375</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.0</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>9.0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.5</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>23.800201416015625</v>
+        <v>22.550750732421875</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>11.75926685333252</v>
+        <v>19.132902145385742</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2022-05-18 15:00:00</t>
+          <t>2022-05-17 06:00:00</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.26421743631362915</v>
+        <v>0.32273247838020325</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.134908065199852</v>
+        <v>0.1816168576478958</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>2.6632766723632812</v>
+        <v>2.4831345081329346</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.7928309440612793</v>
+        <v>2.328798294067383</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.7616426944732666</v>
+        <v>2.548671245574951</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>0.0</v>
@@ -2129,56 +2129,56 @@
         <v>0.0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>46.00654220581055</v>
+        <v>42.63037872314453</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>-43.63379669189453</v>
+        <v>-59.43495178222656</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1013.571044921875</v>
+        <v>1010.097900390625</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>9.90000057220459</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.5</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>22.899599075317383</v>
+        <v>22.933265686035156</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>12.841347694396973</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2022-05-18 17:00:00</t>
+          <t>2022-05-17 07:00:00</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.34652379155158997</v>
+        <v>0.3823235332965851</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.14584851264953613</v>
+        <v>0.19253703951835632</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>2.669271945953369</v>
+        <v>2.4768261909484863</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.718937873840332</v>
+        <v>2.3137969970703125</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.779965400695801</v>
+        <v>2.542982816696167</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>0.0</v>
@@ -2187,56 +2187,56 @@
         <v>0.0</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>46.3031005859375</v>
+        <v>42.73827362060547</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>-42.55892562866211</v>
+        <v>-58.950950622558594</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1012.9658813476562</v>
+        <v>1010.1827392578125</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>10.100000381469727</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>22.597503662109375</v>
+        <v>23.333688735961914</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>10.54979419708252</v>
+        <v>18.958236694335938</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>2022-05-18 19:00:00</t>
+          <t>2022-05-17 08:00:00</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.2812372148036957</v>
+        <v>0.1814873367547989</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.15678897500038147</v>
+        <v>0.20345723628997803</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>2.6846981048583984</v>
+        <v>2.4659903049468994</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.7848520278930664</v>
+        <v>2.308048963546753</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.7907562255859375</v>
+        <v>2.548015594482422</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>0.0</v>
@@ -2245,56 +2245,56 @@
         <v>0.0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>46.568904876708984</v>
+        <v>42.84263610839844</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>-41.54304122924805</v>
+        <v>-58.47175979614258</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1012.3606567382812</v>
+        <v>1010.2676391601562</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.0</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>9.0</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>10.0</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>9.90000057220459</v>
+        <v>8.5</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>23.698801040649414</v>
+        <v>22.899599075317383</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>12.79386043548584</v>
+        <v>18.39633560180664</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>2022-05-18 21:00:00</t>
+          <t>2022-05-17 09:00:00</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.30611616373062134</v>
+        <v>0.22049091756343842</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.1677294224500656</v>
+        <v>0.21437743306159973</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>2.6551477909088135</v>
+        <v>2.5545341968536377</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.7802062034606934</v>
+        <v>2.3990957736968994</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.736379384994507</v>
+        <v>2.6625630855560303</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0.0</v>
@@ -2303,56 +2303,56 @@
         <v>0.0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>46.81132125854492</v>
+        <v>42.94376754760742</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>-40.57950973510742</v>
+        <v>-57.997459411621094</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1011.7554321289062</v>
+        <v>1010.3524780273438</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>9.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>10.0</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>9.90000057220459</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>23.100601196289062</v>
+        <v>23.0</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>14.154237747192383</v>
+        <v>18.307798385620117</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>2022-05-18 23:00:00</t>
+          <t>2022-05-17 10:00:00</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.30115360021591187</v>
+        <v>0.20285563170909882</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.17866986989974976</v>
+        <v>0.22529762983322144</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>2.636544704437256</v>
+        <v>2.5650851726531982</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.7579329013824463</v>
+        <v>2.3996760845184326</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.6687722206115723</v>
+        <v>2.6163387298583984</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0.0</v>
@@ -2361,56 +2361,56 @@
         <v>0.0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>47.08483123779297</v>
+        <v>43.04264450073242</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>-39.57313919067383</v>
+        <v>-57.52111053466797</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1011.1502075195312</v>
+        <v>1010.4373168945312</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.0</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>22.65995979309082</v>
+        <v>23.098796844482422</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>13.892000198364258</v>
+        <v>15.521150588989258</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>2022-05-19 01:00:00</t>
+          <t>2022-05-17 11:00:00</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.2620399296283722</v>
+        <v>0.21839718520641327</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.1896103322505951</v>
+        <v>0.23621782660484314</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2.6353201866149902</v>
+        <v>2.578845977783203</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.749147891998291</v>
+        <v>2.4152398109436035</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.7298758029937744</v>
+        <v>2.645265579223633</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0.0</v>
@@ -2419,56 +2419,56 @@
         <v>0.0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>47.297916412353516</v>
+        <v>43.14155197143555</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>-38.4893798828125</v>
+        <v>-57.03553771972656</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1010.5449829101562</v>
+        <v>1010.5221557617188</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>10.0</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>22.899398803710938</v>
+        <v>22.45008659362793</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>15.783502578735352</v>
+        <v>15.113296508789062</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2022-05-19 03:00:00</t>
+          <t>2022-05-17 12:00:00</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.21604245901107788</v>
+        <v>0.17995929718017578</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.20055077970027924</v>
+        <v>0.24713800847530365</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>2.5882320404052734</v>
+        <v>2.575112819671631</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.7442128658294678</v>
+        <v>2.35943341255188</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.7188847064971924</v>
+        <v>2.641226291656494</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0.0</v>
@@ -2477,56 +2477,56 @@
         <v>0.0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>47.52885055541992</v>
+        <v>43.23735427856445</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>-37.448246002197266</v>
+        <v>-56.55064392089844</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1009.9397583007812</v>
+        <v>1010.6069946289062</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>9.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>10.100000381469727</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>23.399866104125977</v>
+        <v>22.29939842224121</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>15.439336776733398</v>
+        <v>14.046370506286621</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2022-05-19 05:00:00</t>
+          <t>2022-05-17 13:00:00</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.23366661369800568</v>
+        <v>0.11153823882341385</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.21149122714996338</v>
+        <v>0.18366236984729767</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>2.5512359142303467</v>
+        <v>2.6581802368164062</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.6961989402770996</v>
+        <v>2.422759532928467</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.683018684387207</v>
+        <v>2.6969428062438965</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0.0</v>
@@ -2535,56 +2535,56 @@
         <v>0.0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>47.76115036010742</v>
+        <v>43.331729888916016</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>-36.41225051879883</v>
+        <v>-56.06421661376953</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1009.3345947265625</v>
+        <v>1010.69189453125</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>9.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>22.400299072265625</v>
+        <v>21.999500274658203</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>14.15246868133545</v>
+        <v>14.98243522644043</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2022-05-19 07:00:00</t>
+          <t>2022-05-17 14:00:00</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.20732012391090393</v>
+        <v>0.18393026292324066</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.22243168950080872</v>
+        <v>0.18569666147232056</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>2.631145715713501</v>
+        <v>2.6115946769714355</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.7669599056243896</v>
+        <v>2.3916332721710205</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.739109516143799</v>
+        <v>2.673495292663574</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0.0</v>
@@ -2593,56 +2593,56 @@
         <v>0.0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>47.956478118896484</v>
+        <v>43.42428207397461</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>-35.31056213378906</v>
+        <v>-55.57359313964844</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1009.306884765625</v>
+        <v>1010.7767333984375</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>9.90000057220459</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>10.0</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>22.866443634033203</v>
+        <v>20.902570724487305</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>14.321195602416992</v>
+        <v>15.196928024291992</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2022-05-19 09:00:00</t>
+          <t>2022-05-17 15:00:00</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.19384673237800598</v>
+        <v>0.21744152903556824</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.23337213695049286</v>
+        <v>0.003622638527303934</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>2.631457567214966</v>
+        <v>2.6471335887908936</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>2.771599292755127</v>
+        <v>2.422811985015869</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2.745305061340332</v>
+        <v>2.7037107944488525</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0.0</v>
@@ -2651,56 +2651,56 @@
         <v>0.0</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>48.16157150268555</v>
+        <v>43.51515197753906</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>-34.22077560424805</v>
+        <v>-55.07976150512695</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>1009.4442749023438</v>
+        <v>1010.861572265625</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N44" s="2" t="n">
         <v>9.5</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>10.199999809265137</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>23.299999237060547</v>
+        <v>21.3502254486084</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>14.55337142944336</v>
+        <v>14.956144332885742</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2022-05-19 11:00:00</t>
+          <t>2022-05-17 16:00:00</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.26796719431877136</v>
+        <v>0.216101735830307</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.244312584400177</v>
+        <v>0.009092864580452442</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2.661461353302002</v>
+        <v>2.715364456176758</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>2.788158655166626</v>
+        <v>2.4721813201904297</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>2.7685437202453613</v>
+        <v>2.761728525161743</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0.0</v>
@@ -2709,56 +2709,56 @@
         <v>0.0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>48.353050231933594</v>
+        <v>43.60205841064453</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>-33.1220817565918</v>
+        <v>-54.59315490722656</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>1009.5816040039062</v>
+        <v>1011.0694580078125</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.598800659179688</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>9.5</v>
+        <v>9.599400520324707</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>9.90000057220459</v>
+        <v>8.99940013885498</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>10.300000190734863</v>
+        <v>9.098800659179688</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>23.30419921875</v>
+        <v>21.600000381469727</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>14.300000190734863</v>
+        <v>16.347299575805664</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2022-05-19 13:00:00</t>
+          <t>2022-05-17 17:00:00</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.17763185501098633</v>
+        <v>0.22269220650196075</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>5.572316877078265E-5</v>
+        <v>0.014563091099262238</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>2.6858127117156982</v>
+        <v>2.5556588172912598</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>2.785407304763794</v>
+        <v>2.3399672508239746</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>2.751676559448242</v>
+        <v>2.6717915534973145</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0.0</v>
@@ -2767,56 +2767,56 @@
         <v>0.0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>48.53968048095703</v>
+        <v>43.68559646606445</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>-32.03353500366211</v>
+        <v>-54.11551284790039</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>1009.7189331054688</v>
+        <v>1011.3792114257812</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.0</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>9.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>10.0</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>10.300000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>23.049924850463867</v>
+        <v>22.998802185058594</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>14.249349594116211</v>
+        <v>14.061180114746094</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2022-05-19 15:00:00</t>
+          <t>2022-05-17 18:00:00</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.20817364752292633</v>
+        <v>0.2354527711868286</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>1.5890019130893052E-4</v>
+        <v>0.02003331668674946</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>2.697355270385742</v>
+        <v>2.5928239822387695</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>2.7965176105499268</v>
+        <v>2.380262851715088</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>2.7665083408355713</v>
+        <v>2.7048773765563965</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0.0</v>
@@ -2825,56 +2825,56 @@
         <v>0.0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>48.70214080810547</v>
+        <v>43.76372146606445</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>-30.914037704467773</v>
+        <v>-53.65342712402344</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>1009.8562622070312</v>
+        <v>1011.6890258789062</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>9.5</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>10.0</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>10.600000381469727</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>23.90045166015625</v>
+        <v>20.100801467895508</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>14.70864486694336</v>
+        <v>11.590228080749512</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2022-05-19 17:00:00</t>
+          <t>2022-05-17 19:00:00</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.2671559154987335</v>
+        <v>0.23461413383483887</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>2.620772283989936E-4</v>
+        <v>0.02550354413688183</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2.6870927810668945</v>
+        <v>2.5761847496032715</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>2.788266181945801</v>
+        <v>2.3546905517578125</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>2.753817558288574</v>
+        <v>2.6802432537078857</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0.0</v>
@@ -2883,56 +2883,56 @@
         <v>0.0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>48.85997009277344</v>
+        <v>43.84105682373047</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>-29.804922103881836</v>
+        <v>-53.18521499633789</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>1009.99365234375</v>
+        <v>1011.998779296875</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>10.0</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>10.199999809265137</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>22.950448989868164</v>
+        <v>21.50040054321289</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>16.342668533325195</v>
+        <v>10.314796447753906</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2022-05-19 19:00:00</t>
+          <t>2022-05-17 20:00:00</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.21126535534858704</v>
+        <v>0.3739630877971649</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>3.6525423638522625E-4</v>
+        <v>0.03097376972436905</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2.680637836456299</v>
+        <v>2.5640907287597656</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>2.783834457397461</v>
+        <v>2.3604280948638916</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>2.7391679286956787</v>
+        <v>2.664700508117676</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>0.0</v>
@@ -2941,56 +2941,56 @@
         <v>0.0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>49.00657653808594</v>
+        <v>43.90914535522461</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>-28.691287994384766</v>
+        <v>-52.72148513793945</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>1010.1309814453125</v>
+        <v>1012.3085327148438</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.100300788879395</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>9.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>10.0</v>
+        <v>8.700300216674805</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>10.40000057220459</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>24.10099983215332</v>
+        <v>21.549848556518555</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>16.548343658447266</v>
+        <v>10.374405860900879</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2022-05-19 21:00:00</t>
+          <t>2022-05-17 21:00:00</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.24627748131752014</v>
+        <v>0.28294649720191956</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>4.6843127347528934E-4</v>
+        <v>0.03644399717450142</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>2.6784329414367676</v>
+        <v>2.5172715187072754</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>2.784285068511963</v>
+        <v>2.326922655105591</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>2.7549855709075928</v>
+        <v>2.6206464767456055</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>0.0</v>
@@ -2999,56 +2999,56 @@
         <v>0.0</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>49.14579391479492</v>
+        <v>43.969139099121094</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>-27.543485641479492</v>
+        <v>-52.261741638183594</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>1010.268310546875</v>
+        <v>1012.6183471679688</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>9.5</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>10.0</v>
+        <v>8.5</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>10.300000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>23.20012092590332</v>
+        <v>21.29939842224121</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>14.222972869873047</v>
+        <v>10.414721488952637</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2022-05-19 23:00:00</t>
+          <t>2022-05-17 22:00:00</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.3116599917411804</v>
+        <v>0.3341103792190552</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>5.716083105653524E-4</v>
+        <v>0.04191422089934349</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>2.589202642440796</v>
+        <v>2.5478386878967285</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>2.69364595413208</v>
+        <v>2.3492846488952637</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>2.6810073852539062</v>
+        <v>2.682628631591797</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>0.0</v>
@@ -3057,56 +3057,56 @@
         <v>0.0</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>49.27360153198242</v>
+        <v>44.057518005371094</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>-26.38868522644043</v>
+        <v>-51.799072265625</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>1010.8131103515625</v>
+        <v>1013.467529296875</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>9.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>8.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>10.0</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>10.199999809265137</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>22.424924850463867</v>
+        <v>19.800201416015625</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>15.276329040527344</v>
+        <v>10.154158592224121</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>2022-05-20 01:00:00</t>
+          <t>2022-05-17 23:00:00</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.17998173832893372</v>
+        <v>0.3341086506843567</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>6.747852894477546E-4</v>
+        <v>0.04738444834947586</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>2.579780101776123</v>
+        <v>2.5368480682373047</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>2.6751229763031006</v>
+        <v>2.3369829654693604</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>2.654775381088257</v>
+        <v>2.665158271789551</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>0.0</v>
@@ -3115,56 +3115,56 @@
         <v>0.0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>49.38788986206055</v>
+        <v>44.127384185791016</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>-25.243938446044922</v>
+        <v>-51.32520294189453</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>1011.4802856445312</v>
+        <v>1014.5100708007812</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>9.5</v>
+        <v>9.0</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>8.5</v>
+        <v>9.0</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>10.0</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>10.199999809265137</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>23.59950065612793</v>
+        <v>22.097997665405273</v>
       </c>
       <c r="R52" s="2" t="n">
-        <v>14.642266273498535</v>
+        <v>9.16651439666748</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>2022-05-20 03:00:00</t>
+          <t>2022-05-18 00:00:00</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.24907267093658447</v>
+        <v>0.34198594093322754</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>7.779623265378177E-4</v>
+        <v>0.05285467579960823</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>2.566988468170166</v>
+        <v>2.5276780128479004</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>2.6794443130493164</v>
+        <v>2.3318583965301514</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>2.651427745819092</v>
+        <v>2.6085169315338135</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0.0</v>
@@ -3173,56 +3173,56 @@
         <v>0.0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>49.51293182373047</v>
+        <v>44.19559860229492</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>-24.11945343017578</v>
+        <v>-50.848899841308594</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>1012.1474609375</v>
+        <v>1015.0707397460938</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>9.5</v>
+        <v>9.0</v>
       </c>
       <c r="N53" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O53" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="O53" s="2" t="n">
-        <v>10.0</v>
-      </c>
       <c r="P53" s="2" t="n">
-        <v>10.199999809265137</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>23.400299072265625</v>
+        <v>21.8665771484375</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>14.300000190734863</v>
+        <v>8.560836791992188</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>2022-05-20 05:00:00</t>
+          <t>2022-05-18 01:00:00</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.23336027562618256</v>
+        <v>0.33920469880104065</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>8.811393636278808E-4</v>
+        <v>0.0583248995244503</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>2.0473833084106445</v>
+        <v>2.5500948429107666</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>2.1205978393554688</v>
+        <v>2.2882864475250244</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>2.116039752960205</v>
+        <v>2.6007614135742188</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>0.0</v>
@@ -3231,56 +3231,56 @@
         <v>0.0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>49.580833435058594</v>
+        <v>44.26180648803711</v>
       </c>
       <c r="K54" s="2" t="n">
-        <v>-22.968050003051758</v>
+        <v>-50.36875915527344</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>1012.8146362304688</v>
+        <v>1015.0033569335938</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>4.400000095367432</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>4.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>4.599999904632568</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>4.5</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>18.700403213500977</v>
+        <v>21.100000381469727</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>14.786783218383789</v>
+        <v>8.14883041381836</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>2022-05-20 07:00:00</t>
+          <t>2022-05-18 02:00:00</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.2007293701171875</v>
+        <v>0.28204289078712463</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>9.84316342510283E-4</v>
+        <v>0.06379512697458267</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2.404350519180298</v>
+        <v>2.529741048812866</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>2.493422031402588</v>
+        <v>2.295640468597412</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>2.5137388706207275</v>
+        <v>2.5969507694244385</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>0.0</v>
@@ -3289,56 +3289,56 @@
         <v>0.0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>49.65088653564453</v>
+        <v>44.326969146728516</v>
       </c>
       <c r="K55" s="2" t="n">
-        <v>-21.97031593322754</v>
+        <v>-49.88208770751953</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>1013.4818115234375</v>
+        <v>1014.9359741210938</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>19.674999237060547</v>
+        <v>21.733823776245117</v>
       </c>
       <c r="R55" s="2" t="n">
-        <v>15.835752487182617</v>
+        <v>7.67537784576416</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2022-05-20 09:00:00</t>
+          <t>2022-05-18 03:00:00</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.29331547021865845</v>
+        <v>0.3264928460121155</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.001087493379600346</v>
+        <v>0.06926535069942474</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>2.4754457473754883</v>
+        <v>2.4965269565582275</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>0.0</v>
+        <v>2.2867398262023926</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>2.5635268688201904</v>
+        <v>2.5611772537231445</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>0.0</v>
@@ -3347,56 +3347,56 @@
         <v>0.0</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>49.71220779418945</v>
+        <v>44.39054489135742</v>
       </c>
       <c r="K56" s="2" t="n">
-        <v>-20.973804473876953</v>
+        <v>-49.389705657958984</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>1014.1489868164062</v>
+        <v>1014.8685913085938</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.0</v>
       </c>
       <c r="N56" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>8.5</v>
       </c>
       <c r="P56" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>20.200603485107422</v>
+        <v>21.5666446685791</v>
       </c>
       <c r="R56" s="2" t="n">
-        <v>17.253196716308594</v>
+        <v>7.058260440826416</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>2022-05-20 11:00:00</t>
+          <t>2022-05-18 04:00:00</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.24543607234954834</v>
+        <v>0.38000404834747314</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.0011906704166904092</v>
+        <v>0.07473558187484741</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>2.4777066707611084</v>
+        <v>2.39454984664917</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>0.0</v>
+        <v>2.259800910949707</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>2.565131187438965</v>
+        <v>2.5125224590301514</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>0.0</v>
@@ -3405,56 +3405,56 @@
         <v>0.0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>49.765525817871094</v>
+        <v>44.45186996459961</v>
       </c>
       <c r="K57" s="2" t="n">
-        <v>-19.971601486206055</v>
+        <v>-48.900211334228516</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>1014.816162109375</v>
+        <v>1014.8012084960938</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>20.740705490112305</v>
+        <v>21.12481117248535</v>
       </c>
       <c r="R57" s="2" t="n">
-        <v>18.51715850830078</v>
+        <v>7.4021735191345215</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>2022-05-20 13:00:00</t>
+          <t>2022-05-18 05:00:00</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.2622393071651459</v>
+        <v>0.35678842663764954</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.0012938474537804723</v>
+        <v>0.08020580559968948</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>2.492145538330078</v>
+        <v>2.552189826965332</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>0.0</v>
+        <v>2.64888072013855</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>2.5838510990142822</v>
+        <v>2.657527208328247</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>0.0</v>
@@ -3463,56 +3463,56 @@
         <v>0.0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>49.81006622314453</v>
+        <v>44.528076171875</v>
       </c>
       <c r="K58" s="2" t="n">
-        <v>-18.93667221069336</v>
+        <v>-48.41664123535156</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>1015.4833374023438</v>
+        <v>1014.7338256835938</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N58" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P58" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>20.866722106933594</v>
+        <v>21.90012550354004</v>
       </c>
       <c r="R58" s="2" t="n">
-        <v>20.165237426757812</v>
+        <v>7.728068828582764</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>2022-05-20 15:00:00</t>
+          <t>2022-05-18 06:00:00</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.1991758495569229</v>
+        <v>0.2705354392528534</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.0013970244908705354</v>
+        <v>0.08567602932453156</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>2.4533886909484863</v>
+        <v>2.6393213272094727</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7535858154296875</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>2.5605838298797607</v>
+        <v>2.6963272094726562</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>0.0</v>
@@ -3521,56 +3521,56 @@
         <v>0.0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>49.84659194946289</v>
+        <v>44.68085861206055</v>
       </c>
       <c r="K59" s="2" t="n">
-        <v>-17.88877296447754</v>
+        <v>-47.96195602416992</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>1016.1505126953125</v>
+        <v>1014.6664428710938</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>10.300000190734863</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>10.40000057220459</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>9.5</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>20.40019989013672</v>
+        <v>22.30120086669922</v>
       </c>
       <c r="R59" s="2" t="n">
-        <v>19.19207763671875</v>
+        <v>8.426077842712402</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>2022-05-20 17:00:00</t>
+          <t>2022-05-18 07:00:00</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.24553988873958588</v>
+        <v>0.23287846148014069</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.0015002015279605985</v>
+        <v>0.09114626049995422</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>2.489053964614868</v>
+        <v>2.6456985473632812</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7055835723876953</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>2.5770413875579834</v>
+        <v>2.7533719539642334</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>0.0</v>
@@ -3579,56 +3579,56 @@
         <v>0.0</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>49.87318420410156</v>
+        <v>44.84464645385742</v>
       </c>
       <c r="K60" s="2" t="n">
-        <v>-16.852962493896484</v>
+        <v>-47.465999603271484</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>1016.8176879882812</v>
+        <v>1014.5990600585938</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>10.100000381469727</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>10.0</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>21.050125122070312</v>
+        <v>22.828350067138672</v>
       </c>
       <c r="R60" s="2" t="n">
-        <v>18.676034927368164</v>
+        <v>8.36402416229248</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>2022-05-20 19:00:00</t>
+          <t>2022-05-18 08:00:00</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.30653494596481323</v>
+        <v>0.2453293651342392</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.0016033785650506616</v>
+        <v>0.0966164842247963</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>2.503617525100708</v>
+        <v>2.5173165798187256</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>0.0</v>
+        <v>2.623178720474243</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>2.5756683349609375</v>
+        <v>2.6016058921813965</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>0.0</v>
@@ -3637,56 +3637,56 @@
         <v>0.0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>49.89018630981445</v>
+        <v>45.004005432128906</v>
       </c>
       <c r="K61" s="2" t="n">
-        <v>-15.835391998291016</v>
+        <v>-46.97339630126953</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>1017.48486328125</v>
+        <v>1014.5316772460938</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.5</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>9.5</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P61" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>20.20013427734375</v>
+        <v>23.09929656982422</v>
       </c>
       <c r="R61" s="2" t="n">
-        <v>17.06943702697754</v>
+        <v>7.186851501464844</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>2022-05-20 21:00:00</t>
+          <t>2022-05-18 09:00:00</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>0.3012579381465912</v>
+        <v>0.27641475200653076</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.0017065554857254028</v>
+        <v>0.10208670794963837</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>2.440647602081299</v>
+        <v>2.485652446746826</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>2.557365655899048</v>
+        <v>2.6079554557800293</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>2.5236408710479736</v>
+        <v>2.5813753604888916</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>0.0</v>
@@ -3695,56 +3695,56 @@
         <v>0.0</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>49.89826583862305</v>
+        <v>45.14872360229492</v>
       </c>
       <c r="K62" s="2" t="n">
-        <v>-14.875348091125488</v>
+        <v>-46.51744842529297</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>1018.1314086914062</v>
+        <v>1014.4642944335938</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>6.0</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="N62" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>20.000133514404297</v>
+        <v>23.796499252319336</v>
       </c>
       <c r="R62" s="2" t="n">
-        <v>16.700000762939453</v>
+        <v>7.3032145500183105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>2022-05-20 23:00:00</t>
+          <t>2022-05-18 10:00:00</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.22908379137516022</v>
+        <v>0.29867449402809143</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.001809732522815466</v>
+        <v>0.10755693912506104</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>2.398341417312622</v>
+        <v>2.5381200313568115</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>2.4643759727478027</v>
+        <v>2.6783361434936523</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>2.4728753566741943</v>
+        <v>2.627967119216919</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>0.0</v>
@@ -3753,56 +3753,56 @@
         <v>0.0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>49.89786911010742</v>
+        <v>45.29357147216797</v>
       </c>
       <c r="K63" s="2" t="n">
-        <v>-13.839571952819824</v>
+        <v>-46.05376052856445</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>1018.5343627929688</v>
+        <v>1014.3969116210938</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>6.0</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="P63" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>9.0</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>19.600698471069336</v>
+        <v>23.00200080871582</v>
       </c>
       <c r="R63" s="2" t="n">
-        <v>16.50861167907715</v>
+        <v>7.800000190734863</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>2022-05-21 01:00:00</t>
+          <t>2022-05-18 11:00:00</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>0.2099154144525528</v>
+        <v>0.3047454357147217</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.001912909559905529</v>
+        <v>0.1130271628499031</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>2.3905420303344727</v>
+        <v>2.6575582027435303</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>2.482696294784546</v>
+        <v>2.7593209743499756</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>2.4671974182128906</v>
+        <v>2.7257609367370605</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>0.0</v>
@@ -3811,56 +3811,56 @@
         <v>0.0</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>49.88827133178711</v>
+        <v>45.44054412841797</v>
       </c>
       <c r="K64" s="2" t="n">
-        <v>-12.827316284179688</v>
+        <v>-45.57398223876953</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>1018.9373168945312</v>
+        <v>1014.3295288085938</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>6.0</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.5</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>19.598798751831055</v>
+        <v>22.500301361083984</v>
       </c>
       <c r="R64" s="2" t="n">
-        <v>16.54435920715332</v>
+        <v>7.548211097717285</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>2022-05-21 03:00:00</t>
+          <t>2022-05-18 12:00:00</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>0.2005326747894287</v>
+        <v>0.34462934732437134</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.002016086596995592</v>
+        <v>0.11849738657474518</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>2.3895187377929688</v>
+        <v>2.731306791305542</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>2.4771008491516113</v>
+        <v>2.823911190032959</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>2.468223810195923</v>
+        <v>2.8168532848358154</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>0.0</v>
@@ -3869,56 +3869,56 @@
         <v>0.0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>49.87028884887695</v>
+        <v>45.58744430541992</v>
       </c>
       <c r="K65" s="2" t="n">
-        <v>-11.811902046203613</v>
+        <v>-45.085548400878906</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>1019.3402709960938</v>
+        <v>1014.2621459960938</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>6.0</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>10.0</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>10.100000381469727</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>20.200000762939453</v>
+        <v>22.102497100830078</v>
       </c>
       <c r="R65" s="2" t="n">
-        <v>16.484651565551758</v>
+        <v>9.154984474182129</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>2022-05-21 05:00:00</t>
+          <t>2022-05-18 13:00:00</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>0.17945487797260284</v>
+        <v>0.3274540901184082</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.002119263634085655</v>
+        <v>0.12396761775016785</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>2.389047384262085</v>
+        <v>2.672433614730835</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>2.4870409965515137</v>
+        <v>2.811812400817871</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>2.458130359649658</v>
+        <v>2.7398390769958496</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>0.0</v>
@@ -3927,56 +3927,56 @@
         <v>0.0</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>49.8431396484375</v>
+        <v>45.73115158081055</v>
       </c>
       <c r="K66" s="2" t="n">
-        <v>-10.789435386657715</v>
+        <v>-44.5985107421875</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>1019.7432250976562</v>
+        <v>1014.17626953125</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>6.0</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>20.249433517456055</v>
+        <v>23.800201416015625</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>16.521530151367188</v>
+        <v>11.75926685333252</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>2022-05-21 07:00:00</t>
+          <t>2022-05-18 14:00:00</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>0.2806670069694519</v>
+        <v>0.27303221821784973</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.0022224406711757183</v>
+        <v>0.12943783402442932</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>2.4124109745025635</v>
+        <v>2.6613473892211914</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>2.5030910968780518</v>
+        <v>2.787910223007202</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>2.480170488357544</v>
+        <v>2.7542002201080322</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>0.0</v>
@@ -3985,56 +3985,56 @@
         <v>0.0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>49.80592346191406</v>
+        <v>45.86884689331055</v>
       </c>
       <c r="K67" s="2" t="n">
-        <v>-9.74897575378418</v>
+        <v>-44.121559143066406</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>1020.1461791992188</v>
+        <v>1013.8736572265625</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>6.0</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="N67" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.5</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>20.299999237060547</v>
+        <v>22.800600051879883</v>
       </c>
       <c r="R67" s="2" t="n">
-        <v>17.83353614807129</v>
+        <v>12.53773307800293</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>2022-05-21 09:00:00</t>
+          <t>2022-05-18 15:00:00</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>0.5140239596366882</v>
+        <v>0.26421743631362915</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.0023256177082657814</v>
+        <v>0.134908065199852</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6632766723632812</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>2.603311538696289</v>
+        <v>2.7928309440612793</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>2.5963869094848633</v>
+        <v>2.7616426944732666</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>0.0</v>
@@ -4043,56 +4043,56 @@
         <v>0.0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>49.77381134033203</v>
+        <v>46.00654220581055</v>
       </c>
       <c r="K68" s="2" t="n">
-        <v>-8.711542129516602</v>
+        <v>-43.63379669189453</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>1020.5491333007812</v>
+        <v>1013.571044921875</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>6.0</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="N68" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="O68" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="P68" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>20.167448043823242</v>
+        <v>22.899599075317383</v>
       </c>
       <c r="R68" s="2" t="n">
-        <v>17.94312286376953</v>
+        <v>12.841347694396973</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>2022-05-21 11:00:00</t>
+          <t>2022-05-18 16:00:00</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>0.22028149664402008</v>
+        <v>0.2723003029823303</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.0024287947453558445</v>
+        <v>0.14037829637527466</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>2.377673864364624</v>
+        <v>2.7394661903381348</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>0.0</v>
+        <v>2.8677632808685303</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>2.4742507934570312</v>
+        <v>2.8302860260009766</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>0.0</v>
@@ -4101,56 +4101,56 @@
         <v>0.0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>49.731143951416016</v>
+        <v>46.15245819091797</v>
       </c>
       <c r="K69" s="2" t="n">
-        <v>-7.6942572593688965</v>
+        <v>-43.10979080200195</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>1020.9520874023438</v>
+        <v>1013.2684326171875</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>6.0</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="N69" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="O69" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>10.0</v>
       </c>
       <c r="P69" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>20.20013427734375</v>
+        <v>23.350753784179688</v>
       </c>
       <c r="R69" s="2" t="n">
-        <v>19.29625129699707</v>
+        <v>11.91171932220459</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>2022-05-21 13:00:00</t>
+          <t>2022-05-18 17:00:00</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>0.26590806245803833</v>
+        <v>0.34652379155158997</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.0025319717824459076</v>
+        <v>0.14584851264953613</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>2.4250688552856445</v>
+        <v>2.669271945953369</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>0.0</v>
+        <v>2.718937873840332</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>2.5045526027679443</v>
+        <v>2.779965400695801</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>0.0</v>
@@ -4159,56 +4159,56 @@
         <v>0.0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>49.641666412353516</v>
+        <v>46.3031005859375</v>
       </c>
       <c r="K70" s="2" t="n">
-        <v>-6.710836887359619</v>
+        <v>-42.55892562866211</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>1020.8136596679688</v>
+        <v>1012.9658813476562</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>6.0</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N70" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="P70" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>10.100000381469727</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>19.34994888305664</v>
+        <v>22.597503662109375</v>
       </c>
       <c r="R70" s="2" t="n">
-        <v>19.58333396911621</v>
+        <v>10.54979419708252</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>2022-05-21 15:00:00</t>
+          <t>2022-05-18 18:00:00</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.2417910099029541</v>
+        <v>0.26330846548080444</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.0026351488195359707</v>
+        <v>0.1513187438249588</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>2.4124228954315186</v>
+        <v>2.6841835975646973</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7708730697631836</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>2.505927085876465</v>
+        <v>2.7651264667510986</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>0.0</v>
@@ -4217,56 +4217,56 @@
         <v>0.0</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>49.67293167114258</v>
+        <v>46.44015121459961</v>
       </c>
       <c r="K71" s="2" t="n">
-        <v>-5.741236686706543</v>
+        <v>-42.03899002075195</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>1020.3612060546875</v>
+        <v>1012.6632690429688</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>6.0</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>10.0</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>10.0</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>20.86675453186035</v>
+        <v>23.049396514892578</v>
       </c>
       <c r="R71" s="2" t="n">
-        <v>17.674654006958008</v>
+        <v>11.160516738891602</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>2022-05-21 17:00:00</t>
+          <t>2022-05-18 19:00:00</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.3480384051799774</v>
+        <v>0.2812372148036957</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.0027383258566260338</v>
+        <v>0.15678897500038147</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>2.4252374172210693</v>
+        <v>2.6846981048583984</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7848520278930664</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>2.5267953872680664</v>
+        <v>2.7907562255859375</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>0.0</v>
@@ -4275,56 +4275,56 @@
         <v>0.0</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>49.76695251464844</v>
+        <v>46.568904876708984</v>
       </c>
       <c r="K72" s="2" t="n">
-        <v>-4.774892807006836</v>
+        <v>-41.54304122924805</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>1019.9088134765625</v>
+        <v>1012.3606567382812</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>6.0</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N72" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>10.0</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>21.766666412353516</v>
+        <v>23.698801040649414</v>
       </c>
       <c r="R72" s="2" t="n">
-        <v>17.686115264892578</v>
+        <v>12.79386043548584</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>2022-05-21 19:00:00</t>
+          <t>2022-05-18 20:00:00</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.23636816442012787</v>
+        <v>0.29727882146835327</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.002841502893716097</v>
+        <v>0.16225919127464294</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>2.470461130142212</v>
+        <v>2.686020612716675</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>0.0</v>
+        <v>2.8006463050842285</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>2.5244534015655518</v>
+        <v>2.7488293647766113</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>0.0</v>
@@ -4333,56 +4333,56 @@
         <v>0.0</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>49.93191909790039</v>
+        <v>46.69010543823242</v>
       </c>
       <c r="K73" s="2" t="n">
-        <v>-3.8041884899139404</v>
+        <v>-41.06591796875</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>1019.4564208984375</v>
+        <v>1012.0580444335938</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>6.0</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N73" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O73" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>20.54009246826172</v>
+        <v>22.540081024169922</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>17.044885635375977</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>2022-05-21 21:00:00</t>
+          <t>2022-05-18 21:00:00</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.21819335222244263</v>
+        <v>0.30611616373062134</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.00294467993080616</v>
+        <v>0.1677294224500656</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>2.39621901512146</v>
+        <v>2.6551477909088135</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7802062034606934</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>2.4583191871643066</v>
+        <v>2.736379384994507</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>0.0</v>
@@ -4391,56 +4391,56 @@
         <v>0.0</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>50.195735931396484</v>
+        <v>46.81132125854492</v>
       </c>
       <c r="K74" s="2" t="n">
-        <v>-2.8649954795837402</v>
+        <v>-40.57950973510742</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>1019.0039672851562</v>
+        <v>1011.7554321289062</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>6.0</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="N74" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="O74" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>10.0</v>
       </c>
       <c r="P74" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>20.345455169677734</v>
+        <v>23.100601196289062</v>
       </c>
       <c r="R74" s="2" t="n">
-        <v>15.57620620727539</v>
+        <v>14.154237747192383</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>2022-05-21 23:00:00</t>
+          <t>2022-05-18 22:00:00</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.5178005695343018</v>
+        <v>0.2723125219345093</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.0030478567350655794</v>
+        <v>0.17319965362548828</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>0.0</v>
+        <v>2.66306734085083</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>0.0</v>
+        <v>2.788602828979492</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>1.5508482456207275</v>
+        <v>2.6922531127929688</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>0.0</v>
@@ -4449,56 +4449,56 @@
         <v>0.0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>50.345394134521484</v>
+        <v>46.93345642089844</v>
       </c>
       <c r="K75" s="2" t="n">
-        <v>-1.9386152029037476</v>
+        <v>-40.07700729370117</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>1018.5515747070312</v>
+        <v>1011.4528198242188</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>1.3000000715255737</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>1.3000000715255737</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>1.3000000715255737</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>1.3000000715255737</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>12.399999618530273</v>
+        <v>22.06647300720215</v>
       </c>
       <c r="R75" s="2" t="n">
-        <v>17.466976165771484</v>
+        <v>14.030538558959961</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>2022-05-22 01:00:00</t>
+          <t>2022-05-18 23:00:00</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>0.5075506567955017</v>
+        <v>0.30115360021591187</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.0031510337721556425</v>
+        <v>0.17866986989974976</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>0.0</v>
+        <v>2.636544704437256</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7579329013824463</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>1.4692108631134033</v>
+        <v>2.6687722206115723</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>0.0</v>
@@ -4507,146 +4507,4554 @@
         <v>0.0</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>50.46339416503906</v>
+        <v>47.08483123779297</v>
       </c>
       <c r="K76" s="2" t="n">
-        <v>-1.1675076484680176</v>
+        <v>-39.57313919067383</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>1017.7528076171875</v>
+        <v>1011.1502075195312</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>1.3000000715255737</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>1.3000000715255737</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>1.3000000715255737</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>1.3000000715255737</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>11.460176467895508</v>
+        <v>22.65995979309082</v>
       </c>
       <c r="R76" s="2" t="n">
-        <v>17.990604400634766</v>
+        <v>13.892000198364258</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>2022-05-22 03:00:00</t>
+          <t>2022-05-19 00:00:00</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>0.02782093547284603</v>
+        <v>0.25949668884277344</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0.0032542108092457056</v>
+        <v>0.18414010107517242</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6559572219848633</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>0.0</v>
+        <v>2.729241132736206</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>1.7445604801177979</v>
+        <v>2.722078323364258</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>3.9168004989624023</v>
+        <v>0.0</v>
       </c>
       <c r="I77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>50.76314926147461</v>
+        <v>47.202003479003906</v>
       </c>
       <c r="K77" s="2" t="n">
-        <v>-1.1988892555236816</v>
+        <v>-39.03764724731445</v>
       </c>
       <c r="L77" s="2" t="n">
-        <v>1016.73388671875</v>
+        <v>1010.8475952148438</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>5.0</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N77" s="2" t="n">
-        <v>5.200000286102295</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O77" s="2" t="n">
-        <v>5.099999904632568</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="P77" s="2" t="n">
-        <v>5.200000286102295</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q77" s="2" t="n">
-        <v>18.360179901123047</v>
+        <v>23.199064254760742</v>
       </c>
       <c r="R77" s="2" t="n">
-        <v>16.144546508789062</v>
+        <v>14.935355186462402</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
+          <t>2022-05-19 01:00:00</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>0.2620399296283722</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>0.1896103322505951</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>2.6353201866149902</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>2.749147891998291</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>2.7298758029937744</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>47.297916412353516</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>-38.4893798828125</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>1010.5449829101562</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P78" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="Q78" s="2" t="n">
+        <v>22.899398803710938</v>
+      </c>
+      <c r="R78" s="2" t="n">
+        <v>15.783502578735352</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 02:00:00</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>0.25301411747932434</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>0.19508054852485657</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>2.6172139644622803</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>2.747426986694336</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>2.7342886924743652</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>47.416648864746094</v>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>-37.97004318237305</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>1010.2423706054688</v>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>9.500300407409668</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>9.599699974060059</v>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v>10.099100112915039</v>
+      </c>
+      <c r="P79" s="2" t="n">
+        <v>9.99940013885498</v>
+      </c>
+      <c r="Q79" s="2" t="n">
+        <v>22.999099731445312</v>
+      </c>
+      <c r="R79" s="2" t="n">
+        <v>16.033157348632812</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 03:00:00</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>0.21604245901107788</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0.20055077970027924</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>2.5882320404052734</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>2.7442128658294678</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>2.7188847064971924</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>47.52885055541992</v>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>-37.448246002197266</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>1009.9397583007812</v>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O80" s="2" t="n">
+        <v>10.100000381469727</v>
+      </c>
+      <c r="P80" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="Q80" s="2" t="n">
+        <v>23.399866104125977</v>
+      </c>
+      <c r="R80" s="2" t="n">
+        <v>15.439336776733398</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 04:00:00</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>0.20438651740550995</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>0.2060210108757019</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>2.6034927368164062</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>2.7479097843170166</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>2.731429100036621</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>47.64616012573242</v>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>-36.93758773803711</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>1009.6371459960938</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="P81" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="Q81" s="2" t="n">
+        <v>22.66675567626953</v>
+      </c>
+      <c r="R81" s="2" t="n">
+        <v>14.687384605407715</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 05:00:00</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>0.23366661369800568</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>0.21149122714996338</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>2.5512359142303467</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>2.6961989402770996</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>2.683018684387207</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>47.76115036010742</v>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>-36.41225051879883</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>1009.3345947265625</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="P82" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="Q82" s="2" t="n">
+        <v>22.400299072265625</v>
+      </c>
+      <c r="R82" s="2" t="n">
+        <v>14.15246868133545</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 06:00:00</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>0.1792328953742981</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>0.21696145832538605</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>2.5863351821899414</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>2.712453603744507</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>2.6903083324432373</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>47.85599899291992</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>-35.868717193603516</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>1009.2382202148438</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P83" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="Q83" s="2" t="n">
+        <v>22.550676345825195</v>
+      </c>
+      <c r="R83" s="2" t="n">
+        <v>14.116992950439453</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 07:00:00</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>0.20732012391090393</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>0.22243168950080872</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>2.631145715713501</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>2.7669599056243896</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>2.739109516143799</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>47.956478118896484</v>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>-35.31056213378906</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>1009.306884765625</v>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>9.90000057220459</v>
+      </c>
+      <c r="P84" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q84" s="2" t="n">
+        <v>22.866443634033203</v>
+      </c>
+      <c r="R84" s="2" t="n">
+        <v>14.321195602416992</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 08:00:00</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>0.18576884269714355</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>0.2279019057750702</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>2.604822874069214</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>2.7481231689453125</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>2.7372121810913086</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>48.06277847290039</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>-34.76343536376953</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>1009.3755493164062</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="P85" s="2" t="n">
+        <v>10.300000190734863</v>
+      </c>
+      <c r="Q85" s="2" t="n">
+        <v>24.099294662475586</v>
+      </c>
+      <c r="R85" s="2" t="n">
+        <v>13.856989860534668</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 09:00:00</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>0.19384673237800598</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>0.23337213695049286</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>2.631457567214966</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>2.771599292755127</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>2.745305061340332</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>48.16157150268555</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>-34.22077560424805</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>1009.4442749023438</v>
+      </c>
+      <c r="M86" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="P86" s="2" t="n">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="Q86" s="2" t="n">
+        <v>23.299999237060547</v>
+      </c>
+      <c r="R86" s="2" t="n">
+        <v>14.55337142944336</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 10:00:00</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>0.2431333363056183</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0.23884236812591553</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>2.655372142791748</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>2.79020094871521</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>2.7621521949768066</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>48.25878143310547</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>-33.67237091064453</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>1009.512939453125</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N87" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="P87" s="2" t="n">
+        <v>10.40000057220459</v>
+      </c>
+      <c r="Q87" s="2" t="n">
+        <v>22.566844940185547</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>14.420451164245605</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 11:00:00</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>0.26796719431877136</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>0.244312584400177</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>2.661461353302002</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>2.788158655166626</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>2.7685437202453613</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>48.353050231933594</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>-33.1220817565918</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>1009.5816040039062</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>9.90000057220459</v>
+      </c>
+      <c r="P88" s="2" t="n">
+        <v>10.300000190734863</v>
+      </c>
+      <c r="Q88" s="2" t="n">
+        <v>23.30419921875</v>
+      </c>
+      <c r="R88" s="2" t="n">
+        <v>14.300000190734863</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 12:00:00</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>0.2814241945743561</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>4.134657501708716E-6</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>2.6900012493133545</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>2.788583993911743</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>2.74150013923645</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>48.44599533081055</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>-32.58156204223633</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>1009.6502685546875</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>9.90000057220459</v>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q89" s="2" t="n">
+        <v>22.200607299804688</v>
+      </c>
+      <c r="R89" s="2" t="n">
+        <v>14.104880332946777</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 13:00:00</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>0.17763185501098633</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>5.572316877078265E-5</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>2.6858127117156982</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>2.785407304763794</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>2.751676559448242</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>48.53968048095703</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>-32.03353500366211</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>1009.7189331054688</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>10.300000190734863</v>
+      </c>
+      <c r="Q90" s="2" t="n">
+        <v>23.049924850463867</v>
+      </c>
+      <c r="R90" s="2" t="n">
+        <v>14.249349594116211</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 14:00:00</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>0.22099027037620544</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>1.0731168003985658E-4</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>2.689699649810791</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>2.791249990463257</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>2.7607405185699463</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>48.618709564208984</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>-31.470991134643555</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>1009.78759765625</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P91" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q91" s="2" t="n">
+        <v>23.203001022338867</v>
+      </c>
+      <c r="R91" s="2" t="n">
+        <v>15.231138229370117</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 15:00:00</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>0.20817364752292633</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>1.5890019130893052E-4</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>2.697355270385742</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>2.7965176105499268</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>2.7665083408355713</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>48.70214080810547</v>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>-30.914037704467773</v>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>1009.8562622070312</v>
+      </c>
+      <c r="M92" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N92" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P92" s="2" t="n">
+        <v>10.600000381469727</v>
+      </c>
+      <c r="Q92" s="2" t="n">
+        <v>23.90045166015625</v>
+      </c>
+      <c r="R92" s="2" t="n">
+        <v>14.70864486694336</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 16:00:00</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>0.28216394782066345</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>2.1048870985396206E-4</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>2.68161678314209</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>2.7866899967193604</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>2.7582898139953613</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J93" s="2" t="n">
+        <v>48.78231430053711</v>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>-30.360897064208984</v>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>1009.9249877929688</v>
+      </c>
+      <c r="M93" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N93" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O93" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P93" s="2" t="n">
+        <v>10.300000190734863</v>
+      </c>
+      <c r="Q93" s="2" t="n">
+        <v>23.40080451965332</v>
+      </c>
+      <c r="R93" s="2" t="n">
+        <v>15.116954803466797</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 17:00:00</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>0.2671559154987335</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>2.620772283989936E-4</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>2.6870927810668945</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>2.788266181945801</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>2.753817558288574</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>48.85997009277344</v>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>-29.804922103881836</v>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>1009.99365234375</v>
+      </c>
+      <c r="M94" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N94" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O94" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P94" s="2" t="n">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="Q94" s="2" t="n">
+        <v>22.950448989868164</v>
+      </c>
+      <c r="R94" s="2" t="n">
+        <v>16.342668533325195</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 18:00:00</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>0.2848687469959259</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>3.136657178401947E-4</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>2.6778578758239746</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>2.7639544010162354</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>2.7334680557250977</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>48.93448257446289</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>-29.249391555786133</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>1010.0623168945312</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N95" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P95" s="2" t="n">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="Q95" s="2" t="n">
+        <v>23.200302124023438</v>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v>16.478145599365234</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 19:00:00</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>0.21126535534858704</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>3.6525423638522625E-4</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>2.680637836456299</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>2.783834457397461</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>2.7391679286956787</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>49.00657653808594</v>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>-28.691287994384766</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>1010.1309814453125</v>
+      </c>
+      <c r="M96" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N96" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O96" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P96" s="2" t="n">
+        <v>10.40000057220459</v>
+      </c>
+      <c r="Q96" s="2" t="n">
+        <v>24.10099983215332</v>
+      </c>
+      <c r="R96" s="2" t="n">
+        <v>16.548343658447266</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 20:00:00</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>0.2763165533542633</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>4.168427549302578E-4</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>2.6896374225616455</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>2.784381866455078</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>2.762608051300049</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>49.07710647583008</v>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>-28.122644424438477</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>1010.1996459960938</v>
+      </c>
+      <c r="M97" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N97" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O97" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P97" s="2" t="n">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="Q97" s="2" t="n">
+        <v>23.299774169921875</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>15.5279541015625</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 21:00:00</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>0.24627748131752014</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>4.6843127347528934E-4</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>2.6784329414367676</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>2.784285068511963</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>2.7549855709075928</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>49.14579391479492</v>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>-27.543485641479492</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>1010.268310546875</v>
+      </c>
+      <c r="M98" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N98" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O98" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P98" s="2" t="n">
+        <v>10.300000190734863</v>
+      </c>
+      <c r="Q98" s="2" t="n">
+        <v>23.20012092590332</v>
+      </c>
+      <c r="R98" s="2" t="n">
+        <v>14.222972869873047</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 22:00:00</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>0.2526163160800934</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>5.200197920203209E-4</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>2.6098148822784424</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>2.7127256393432617</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>2.689746379852295</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>49.211116790771484</v>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>-26.966157913208008</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>1010.4795532226562</v>
+      </c>
+      <c r="M99" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N99" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O99" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P99" s="2" t="n">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="Q99" s="2" t="n">
+        <v>23.54982566833496</v>
+      </c>
+      <c r="R99" s="2" t="n">
+        <v>14.300000190734863</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-19 23:00:00</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>0.3116599917411804</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>5.716083105653524E-4</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>2.589202642440796</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>2.69364595413208</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>2.6810073852539062</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>49.27360153198242</v>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>-26.38868522644043</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>1010.8131103515625</v>
+      </c>
+      <c r="M100" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N100" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O100" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P100" s="2" t="n">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="Q100" s="2" t="n">
+        <v>22.424924850463867</v>
+      </c>
+      <c r="R100" s="2" t="n">
+        <v>15.276329040527344</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>0.17738042771816254</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>6.231967709027231E-4</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>2.586110830307007</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>2.677664041519165</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>2.6552681922912598</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>49.33168029785156</v>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>-25.819547653198242</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>1011.146728515625</v>
+      </c>
+      <c r="M101" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N101" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O101" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P101" s="2" t="n">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="Q101" s="2" t="n">
+        <v>23.2002010345459</v>
+      </c>
+      <c r="R101" s="2" t="n">
+        <v>15.524197578430176</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 01:00:00</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>0.17998173832893372</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>6.747852894477546E-4</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>2.579780101776123</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>2.6751229763031006</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>2.654775381088257</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>49.38788986206055</v>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>-25.243938446044922</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>1011.4802856445312</v>
+      </c>
+      <c r="M102" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N102" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O102" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P102" s="2" t="n">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="Q102" s="2" t="n">
+        <v>23.59950065612793</v>
+      </c>
+      <c r="R102" s="2" t="n">
+        <v>14.642266273498535</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 02:00:00</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>0.2047116607427597</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>7.263738079927862E-4</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>2.5776572227478027</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>2.681424379348755</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>2.667696237564087</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="2" t="n">
+        <v>49.4603271484375</v>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>-24.677339553833008</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>1011.8139038085938</v>
+      </c>
+      <c r="M103" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N103" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O103" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P103" s="2" t="n">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="Q103" s="2" t="n">
+        <v>23.200000762939453</v>
+      </c>
+      <c r="R103" s="2" t="n">
+        <v>14.358402252197266</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 03:00:00</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>0.24907267093658447</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>7.779623265378177E-4</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>2.566988468170166</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>2.6794443130493164</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>2.651427745819092</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="2" t="n">
+        <v>49.51293182373047</v>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>-24.11945343017578</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>1012.1474609375</v>
+      </c>
+      <c r="M104" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N104" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O104" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P104" s="2" t="n">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="Q104" s="2" t="n">
+        <v>23.400299072265625</v>
+      </c>
+      <c r="R104" s="2" t="n">
+        <v>14.300000190734863</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 04:00:00</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>0.24897420406341553</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>8.295508450828493E-4</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>2.562955617904663</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>2.6522862911224365</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>2.6477668285369873</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J105" s="2" t="n">
+        <v>49.536643981933594</v>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>-23.53954315185547</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>1012.4810791015625</v>
+      </c>
+      <c r="M105" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N105" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O105" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P105" s="2" t="n">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="Q105" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="R105" s="2" t="n">
+        <v>14.868756294250488</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 05:00:00</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>0.23336027562618256</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>8.811393636278808E-4</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>2.0473833084106445</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>2.1205978393554688</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>2.116039752960205</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>49.580833435058594</v>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>-22.968050003051758</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>1012.8146362304688</v>
+      </c>
+      <c r="M106" s="2" t="n">
+        <v>4.400000095367432</v>
+      </c>
+      <c r="N106" s="2" t="n">
+        <v>4.700000286102295</v>
+      </c>
+      <c r="O106" s="2" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="P106" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q106" s="2" t="n">
+        <v>18.700403213500977</v>
+      </c>
+      <c r="R106" s="2" t="n">
+        <v>14.786783218383789</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 06:00:00</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>0.1981101632118225</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>9.327278821729124E-4</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>2.389281749725342</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>2.4837682247161865</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>2.4979922771453857</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="2" t="n">
+        <v>49.61697769165039</v>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>-22.47205352783203</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>1013.1482543945312</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="N107" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="O107" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="P107" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q107" s="2" t="n">
+        <v>19.6497745513916</v>
+      </c>
+      <c r="R107" s="2" t="n">
+        <v>15.41005802154541</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 07:00:00</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>0.2007293701171875</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>9.84316342510283E-4</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>2.404350519180298</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>2.493422031402588</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>2.5137388706207275</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J108" s="2" t="n">
+        <v>49.65088653564453</v>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>-21.97031593322754</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>1013.4818115234375</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="N108" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="O108" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="P108" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q108" s="2" t="n">
+        <v>19.674999237060547</v>
+      </c>
+      <c r="R108" s="2" t="n">
+        <v>15.835752487182617</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 08:00:00</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>0.30522820353507996</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>0.0010359048610553145</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>2.4179129600524902</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>2.492568254470825</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>2.5239439010620117</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J109" s="2" t="n">
+        <v>49.68247985839844</v>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>-21.473941802978516</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>1013.8154296875</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="N109" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O109" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="P109" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q109" s="2" t="n">
+        <v>21.000267028808594</v>
+      </c>
+      <c r="R109" s="2" t="n">
+        <v>16.33051872253418</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 09:00:00</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>0.29331547021865845</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>0.001087493379600346</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>2.4754457473754883</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>2.5635268688201904</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J110" s="2" t="n">
+        <v>49.71220779418945</v>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>-20.973804473876953</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>1014.1489868164062</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N110" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O110" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P110" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q110" s="2" t="n">
+        <v>20.200603485107422</v>
+      </c>
+      <c r="R110" s="2" t="n">
+        <v>17.253196716308594</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 10:00:00</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>0.26269257068634033</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>0.0011390818981453776</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>2.475085496902466</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>2.588050365447998</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>49.73946762084961</v>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>-20.47747039794922</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>1014.4826049804688</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N111" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O111" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P111" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q111" s="2" t="n">
+        <v>19.700000762939453</v>
+      </c>
+      <c r="R111" s="2" t="n">
+        <v>18.0028133392334</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 11:00:00</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>0.24543607234954834</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>0.0011906704166904092</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>2.4777066707611084</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>2.565131187438965</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J112" s="2" t="n">
+        <v>49.765525817871094</v>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>-19.971601486206055</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>1014.816162109375</v>
+      </c>
+      <c r="M112" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N112" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O112" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P112" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q112" s="2" t="n">
+        <v>20.740705490112305</v>
+      </c>
+      <c r="R112" s="2" t="n">
+        <v>18.51715850830078</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 12:00:00</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>0.22130025923252106</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>0.0012422589352354407</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>2.4631950855255127</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>2.565237522125244</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>49.788818359375</v>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>-19.45467185974121</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>1015.1497802734375</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N113" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O113" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P113" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q113" s="2" t="n">
+        <v>20.43328857421875</v>
+      </c>
+      <c r="R113" s="2" t="n">
+        <v>19.37807846069336</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 13:00:00</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>0.2622393071651459</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>0.0012938474537804723</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>2.492145538330078</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>2.5838510990142822</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J114" s="2" t="n">
+        <v>49.81006622314453</v>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>-18.93667221069336</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>1015.4833374023438</v>
+      </c>
+      <c r="M114" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N114" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O114" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P114" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q114" s="2" t="n">
+        <v>20.866722106933594</v>
+      </c>
+      <c r="R114" s="2" t="n">
+        <v>20.165237426757812</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 14:00:00</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>0.3165742754936218</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>0.0013454359723255038</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>2.4872257709503174</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>2.5568394660949707</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J115" s="2" t="n">
+        <v>49.830055236816406</v>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>-18.41155242919922</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>1015.8169555664062</v>
+      </c>
+      <c r="M115" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N115" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O115" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P115" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q115" s="2" t="n">
+        <v>20.400386810302734</v>
+      </c>
+      <c r="R115" s="2" t="n">
+        <v>18.927291870117188</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 15:00:00</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>0.1991758495569229</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>0.0013970244908705354</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>2.4533886909484863</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>2.5605838298797607</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J116" s="2" t="n">
+        <v>49.84659194946289</v>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>-17.88877296447754</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>1016.1505126953125</v>
+      </c>
+      <c r="M116" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N116" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O116" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P116" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q116" s="2" t="n">
+        <v>20.40019989013672</v>
+      </c>
+      <c r="R116" s="2" t="n">
+        <v>19.19207763671875</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 16:00:00</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>0.2251308113336563</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>0.001448613009415567</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>2.4793765544891357</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>2.5765864849090576</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J117" s="2" t="n">
+        <v>49.86094665527344</v>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>-17.373218536376953</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>1016.484130859375</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N117" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O117" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P117" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q117" s="2" t="n">
+        <v>20.40089988708496</v>
+      </c>
+      <c r="R117" s="2" t="n">
+        <v>19.12259864807129</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 17:00:00</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>0.24553988873958588</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>0.0015002015279605985</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>2.489053964614868</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>2.5770413875579834</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J118" s="2" t="n">
+        <v>49.87318420410156</v>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>-16.852962493896484</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>1016.8176879882812</v>
+      </c>
+      <c r="M118" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N118" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O118" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P118" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q118" s="2" t="n">
+        <v>21.050125122070312</v>
+      </c>
+      <c r="R118" s="2" t="n">
+        <v>18.676034927368164</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 18:00:00</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>0.29662397503852844</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>0.00155179004650563</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>2.4874112606048584</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>2.5498461723327637</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J119" s="2" t="n">
+        <v>49.88280487060547</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>-16.341604232788086</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>1017.1513061523438</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N119" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O119" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P119" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q119" s="2" t="n">
+        <v>20.599599838256836</v>
+      </c>
+      <c r="R119" s="2" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 19:00:00</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>0.30653494596481323</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>0.0016033785650506616</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>2.503617525100708</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>2.5756683349609375</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J120" s="2" t="n">
+        <v>49.89018630981445</v>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>-15.835391998291016</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>1017.48486328125</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N120" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O120" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P120" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q120" s="2" t="n">
+        <v>20.20013427734375</v>
+      </c>
+      <c r="R120" s="2" t="n">
+        <v>17.06943702697754</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 20:00:00</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>0.28777453303337097</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>0.0016549670835956931</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>1.674879789352417</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>1.443955898284912</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>1.7060915231704712</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J121" s="2" t="n">
+        <v>49.89529800415039</v>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>-15.34996509552002</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>1017.8184814453125</v>
+      </c>
+      <c r="M121" s="2" t="n">
+        <v>2.6000001430511475</v>
+      </c>
+      <c r="N121" s="2" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="O121" s="2" t="n">
+        <v>2.6000001430511475</v>
+      </c>
+      <c r="P121" s="2" t="n">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="Q121" s="2" t="n">
+        <v>15.749799728393555</v>
+      </c>
+      <c r="R121" s="2" t="n">
+        <v>16.77548599243164</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 21:00:00</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>0.3012579381465912</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>0.0017065554857254028</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>2.440647602081299</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>2.557365655899048</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>2.5236408710479736</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J122" s="2" t="n">
+        <v>49.89826583862305</v>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>-14.875348091125488</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>1018.1314086914062</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N122" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O122" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P122" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q122" s="2" t="n">
+        <v>20.000133514404297</v>
+      </c>
+      <c r="R122" s="2" t="n">
+        <v>16.700000762939453</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 22:00:00</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>0.23862206935882568</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>0.0017581440042704344</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>2.408142566680908</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>2.5092015266418457</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>2.4835259914398193</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J123" s="2" t="n">
+        <v>49.899234771728516</v>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>-14.352555274963379</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>1018.3328857421875</v>
+      </c>
+      <c r="M123" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N123" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O123" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P123" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q123" s="2" t="n">
+        <v>19.7002010345459</v>
+      </c>
+      <c r="R123" s="2" t="n">
+        <v>16.703767776489258</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-20 23:00:00</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>0.22908379137516022</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>0.001809732522815466</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>2.398341417312622</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>2.4643759727478027</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>2.4728753566741943</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J124" s="2" t="n">
+        <v>49.89786911010742</v>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>-13.839571952819824</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>1018.5343627929688</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N124" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O124" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P124" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q124" s="2" t="n">
+        <v>19.600698471069336</v>
+      </c>
+      <c r="R124" s="2" t="n">
+        <v>16.50861167907715</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>0.21463437378406525</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>0.0018613210413604975</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>2.412688970565796</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>2.505007266998291</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>2.501875400543213</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J125" s="2" t="n">
+        <v>49.8941650390625</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>-13.333898544311523</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>1018.73583984375</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N125" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P125" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q125" s="2" t="n">
+        <v>19.899999618530273</v>
+      </c>
+      <c r="R125" s="2" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 01:00:00</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>0.2099154144525528</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>0.001912909559905529</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>2.3905420303344727</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>2.482696294784546</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>2.4671974182128906</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J126" s="2" t="n">
+        <v>49.88827133178711</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>-12.827316284179688</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>1018.9373168945312</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N126" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O126" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P126" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q126" s="2" t="n">
+        <v>19.598798751831055</v>
+      </c>
+      <c r="R126" s="2" t="n">
+        <v>16.54435920715332</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 02:00:00</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>0.22938172519207</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>0.0019644980784505606</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>2.4077842235565186</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>2.5008859634399414</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>2.472475290298462</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J127" s="2" t="n">
+        <v>49.88057327270508</v>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>-12.322820663452148</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>1019.1387939453125</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N127" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P127" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q127" s="2" t="n">
+        <v>19.200000762939453</v>
+      </c>
+      <c r="R127" s="2" t="n">
+        <v>16.500038146972656</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 03:00:00</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>0.2005326747894287</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>0.002016086596995592</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>2.3895187377929688</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>2.4771008491516113</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>2.468223810195923</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J128" s="2" t="n">
+        <v>49.87028884887695</v>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>-11.811902046203613</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>1019.3402709960938</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N128" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P128" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q128" s="2" t="n">
+        <v>20.200000762939453</v>
+      </c>
+      <c r="R128" s="2" t="n">
+        <v>16.484651565551758</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 04:00:00</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>0.19701208174228668</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>0.0020676751155406237</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>2.3732800483703613</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>2.4793970584869385</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>2.446300745010376</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J129" s="2" t="n">
+        <v>49.85786056518555</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>-11.305909156799316</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>1019.541748046875</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N129" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O129" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P129" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q129" s="2" t="n">
+        <v>19.30120086669922</v>
+      </c>
+      <c r="R129" s="2" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 05:00:00</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>0.17945487797260284</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>0.002119263634085655</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>2.389047384262085</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>2.4870409965515137</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>2.458130359649658</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J130" s="2" t="n">
+        <v>49.8431396484375</v>
+      </c>
+      <c r="K130" s="2" t="n">
+        <v>-10.789435386657715</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>1019.7432250976562</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N130" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O130" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P130" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q130" s="2" t="n">
+        <v>20.249433517456055</v>
+      </c>
+      <c r="R130" s="2" t="n">
+        <v>16.521530151367188</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 06:00:00</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>0.17797082662582397</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>0.0021708521526306868</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>2.394463300704956</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>2.4775938987731934</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>2.4649746417999268</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="2" t="n">
+        <v>49.825660705566406</v>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>-10.269484519958496</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>1019.9447021484375</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N131" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O131" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P131" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q131" s="2" t="n">
+        <v>19.332242965698242</v>
+      </c>
+      <c r="R131" s="2" t="n">
+        <v>16.726245880126953</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 07:00:00</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>0.2806670069694519</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>0.0022224406711757183</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>2.4124109745025635</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>2.5030910968780518</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>2.480170488357544</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J132" s="2" t="n">
+        <v>49.80592346191406</v>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>-9.74897575378418</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>1020.1461791992188</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N132" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O132" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P132" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q132" s="2" t="n">
+        <v>20.299999237060547</v>
+      </c>
+      <c r="R132" s="2" t="n">
+        <v>17.83353614807129</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>0.445448637008667</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>0.00227402918972075</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>2.5147149562835693</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>2.4565134048461914</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J133" s="2" t="n">
+        <v>49.78377151489258</v>
+      </c>
+      <c r="K133" s="2" t="n">
+        <v>-9.229696273803711</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>1020.34765625</v>
+      </c>
+      <c r="M133" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N133" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O133" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P133" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q133" s="2" t="n">
+        <v>19.95025062561035</v>
+      </c>
+      <c r="R133" s="2" t="n">
+        <v>17.766326904296875</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 09:00:00</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>0.5140239596366882</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>0.0023256177082657814</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>2.603311538696289</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>2.5963869094848633</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J134" s="2" t="n">
+        <v>49.77381134033203</v>
+      </c>
+      <c r="K134" s="2" t="n">
+        <v>-8.711542129516602</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>1020.5491333007812</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N134" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O134" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P134" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q134" s="2" t="n">
+        <v>20.167448043823242</v>
+      </c>
+      <c r="R134" s="2" t="n">
+        <v>17.94312286376953</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 10:00:00</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>0.41179153323173523</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>0.002377206226810813</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>2.519415855407715</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>2.4914047718048096</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J135" s="2" t="n">
+        <v>49.765769958496094</v>
+      </c>
+      <c r="K135" s="2" t="n">
+        <v>-8.198415756225586</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>1020.7506103515625</v>
+      </c>
+      <c r="M135" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N135" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O135" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P135" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q135" s="2" t="n">
+        <v>19.602399826049805</v>
+      </c>
+      <c r="R135" s="2" t="n">
+        <v>18.100000381469727</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 11:00:00</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>0.22028149664402008</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>0.0024287947453558445</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>2.377673864364624</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>2.4742507934570312</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J136" s="2" t="n">
+        <v>49.731143951416016</v>
+      </c>
+      <c r="K136" s="2" t="n">
+        <v>-7.6942572593688965</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>1020.9520874023438</v>
+      </c>
+      <c r="M136" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N136" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O136" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P136" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q136" s="2" t="n">
+        <v>20.20013427734375</v>
+      </c>
+      <c r="R136" s="2" t="n">
+        <v>19.29625129699707</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 12:00:00</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>0.25605157017707825</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>0.002480383263900876</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>2.4229774475097656</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>2.514373302459717</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J137" s="2" t="n">
+        <v>49.6829833984375</v>
+      </c>
+      <c r="K137" s="2" t="n">
+        <v>-7.200606822967529</v>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>1021.0398559570312</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N137" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O137" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P137" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q137" s="2" t="n">
+        <v>19.89933204650879</v>
+      </c>
+      <c r="R137" s="2" t="n">
+        <v>19.311059951782227</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 13:00:00</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>0.26590806245803833</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>0.0025319717824459076</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>2.4250688552856445</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>2.5045526027679443</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J138" s="2" t="n">
+        <v>49.641666412353516</v>
+      </c>
+      <c r="K138" s="2" t="n">
+        <v>-6.710836887359619</v>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>1020.8136596679688</v>
+      </c>
+      <c r="M138" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N138" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O138" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P138" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q138" s="2" t="n">
+        <v>19.34994888305664</v>
+      </c>
+      <c r="R138" s="2" t="n">
+        <v>19.58333396911621</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 14:00:00</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>0.213032066822052</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>0.002583560300990939</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>2.417201280593872</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>2.523325204849243</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J139" s="2" t="n">
+        <v>49.62890625</v>
+      </c>
+      <c r="K139" s="2" t="n">
+        <v>-6.22196626663208</v>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>1020.58740234375</v>
+      </c>
+      <c r="M139" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N139" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O139" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P139" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q139" s="2" t="n">
+        <v>19.425251007080078</v>
+      </c>
+      <c r="R139" s="2" t="n">
+        <v>17.718849182128906</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 15:00:00</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>0.2417910099029541</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>0.0026351488195359707</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>2.4124228954315186</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>2.505927085876465</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J140" s="2" t="n">
+        <v>49.67293167114258</v>
+      </c>
+      <c r="K140" s="2" t="n">
+        <v>-5.741236686706543</v>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>1020.3612060546875</v>
+      </c>
+      <c r="M140" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N140" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O140" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P140" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q140" s="2" t="n">
+        <v>20.86675453186035</v>
+      </c>
+      <c r="R140" s="2" t="n">
+        <v>17.674654006958008</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 16:00:00</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>0.25299516320228577</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>0.0026867373380810022</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>2.415395736694336</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>2.522871732711792</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J141" s="2" t="n">
+        <v>49.694889068603516</v>
+      </c>
+      <c r="K141" s="2" t="n">
+        <v>-5.259485244750977</v>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>1020.135009765625</v>
+      </c>
+      <c r="M141" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N141" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O141" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P141" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q141" s="2" t="n">
+        <v>20.29759979248047</v>
+      </c>
+      <c r="R141" s="2" t="n">
+        <v>17.759021759033203</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 17:00:00</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>0.3480384051799774</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>0.0027383258566260338</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>2.4252374172210693</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>2.5267953872680664</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J142" s="2" t="n">
+        <v>49.76695251464844</v>
+      </c>
+      <c r="K142" s="2" t="n">
+        <v>-4.774892807006836</v>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>1019.9088134765625</v>
+      </c>
+      <c r="M142" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N142" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O142" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P142" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q142" s="2" t="n">
+        <v>21.766666412353516</v>
+      </c>
+      <c r="R142" s="2" t="n">
+        <v>17.686115264892578</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 18:00:00</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>0.24773992598056793</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>0.0027899143751710653</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>2.4295029640197754</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>2.512535810470581</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J143" s="2" t="n">
+        <v>49.83642578125</v>
+      </c>
+      <c r="K143" s="2" t="n">
+        <v>-4.286643028259277</v>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>1019.6826171875</v>
+      </c>
+      <c r="M143" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N143" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O143" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P143" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q143" s="2" t="n">
+        <v>20.500200271606445</v>
+      </c>
+      <c r="R143" s="2" t="n">
+        <v>17.437393188476562</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 19:00:00</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>0.23636816442012787</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>0.002841502893716097</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>2.470461130142212</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>2.5244534015655518</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J144" s="2" t="n">
+        <v>49.93191909790039</v>
+      </c>
+      <c r="K144" s="2" t="n">
+        <v>-3.8041884899139404</v>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>1019.4564208984375</v>
+      </c>
+      <c r="M144" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N144" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O144" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P144" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q144" s="2" t="n">
+        <v>20.54009246826172</v>
+      </c>
+      <c r="R144" s="2" t="n">
+        <v>17.044885635375977</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 20:00:00</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>0.3324417769908905</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>0.0028930914122611284</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>2.406482219696045</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>2.4942901134490967</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J145" s="2" t="n">
+        <v>50.06692886352539</v>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>-3.339898109436035</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>1019.230224609375</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N145" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O145" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P145" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q145" s="2" t="n">
+        <v>20.99989891052246</v>
+      </c>
+      <c r="R145" s="2" t="n">
+        <v>16.320951461791992</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 21:00:00</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>0.21819335222244263</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>0.00294467993080616</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>2.39621901512146</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>2.4583191871643066</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J146" s="2" t="n">
+        <v>50.195735931396484</v>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>-2.8649954795837402</v>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>1019.0039672851562</v>
+      </c>
+      <c r="M146" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N146" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O146" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P146" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q146" s="2" t="n">
+        <v>20.345455169677734</v>
+      </c>
+      <c r="R146" s="2" t="n">
+        <v>15.57620620727539</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 22:00:00</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>0.17839911580085754</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>0.002996268216520548</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>2.3657634258270264</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>2.4685213565826416</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J147" s="2" t="n">
+        <v>50.28343200683594</v>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>-2.3544349670410156</v>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>1018.7777709960938</v>
+      </c>
+      <c r="M147" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N147" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O147" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P147" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q147" s="2" t="n">
+        <v>20.7997989654541</v>
+      </c>
+      <c r="R147" s="2" t="n">
+        <v>15.812127113342285</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-21 23:00:00</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>0.5178005695343018</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>0.0030478567350655794</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>1.5508482456207275</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J148" s="2" t="n">
+        <v>50.345394134521484</v>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>-1.9386152029037476</v>
+      </c>
+      <c r="L148" s="2" t="n">
+        <v>1018.5515747070312</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="N148" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="O148" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="P148" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="Q148" s="2" t="n">
+        <v>12.399999618530273</v>
+      </c>
+      <c r="R148" s="2" t="n">
+        <v>17.466976165771484</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>0.40302523970603943</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>0.003099445253610611</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>1.7038310766220093</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>50.395606994628906</v>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>-1.5586498975753784</v>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>1018.2473754882812</v>
+      </c>
+      <c r="M149" s="2" t="n">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="N149" s="2" t="n">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="O149" s="2" t="n">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="P149" s="2" t="n">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="Q149" s="2" t="n">
+        <v>13.199999809265137</v>
+      </c>
+      <c r="R149" s="2" t="n">
+        <v>17.132064819335938</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-22 01:00:00</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>0.5075506567955017</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>0.0031510337721556425</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>1.4692108631134033</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J150" s="2" t="n">
+        <v>50.46339416503906</v>
+      </c>
+      <c r="K150" s="2" t="n">
+        <v>-1.1675076484680176</v>
+      </c>
+      <c r="L150" s="2" t="n">
+        <v>1017.7528076171875</v>
+      </c>
+      <c r="M150" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="N150" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="O150" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="P150" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="Q150" s="2" t="n">
+        <v>11.460176467895508</v>
+      </c>
+      <c r="R150" s="2" t="n">
+        <v>17.990604400634766</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-22 02:00:00</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>0.4736454486846924</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>0.003202622290700674</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>1.04184091091156</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>0.8772000074386597</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>50.62037658691406</v>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>-0.9758795499801636</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>1017.2433471679688</v>
+      </c>
+      <c r="M151" s="2" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="N151" s="2" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="O151" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P151" s="2" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>9.799698829650879</v>
+      </c>
+      <c r="R151" s="2" t="n">
+        <v>17.024078369140625</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-22 03:00:00</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>0.02782093547284603</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>0.0032542108092457056</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>1.7445604801177979</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>3.9168004989624023</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J152" s="2" t="n">
+        <v>50.76314926147461</v>
+      </c>
+      <c r="K152" s="2" t="n">
+        <v>-1.1988892555236816</v>
+      </c>
+      <c r="L152" s="2" t="n">
+        <v>1016.73388671875</v>
+      </c>
+      <c r="M152" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N152" s="2" t="n">
+        <v>5.200000286102295</v>
+      </c>
+      <c r="O152" s="2" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="P152" s="2" t="n">
+        <v>5.200000286102295</v>
+      </c>
+      <c r="Q152" s="2" t="n">
+        <v>18.360179901123047</v>
+      </c>
+      <c r="R152" s="2" t="n">
+        <v>16.144546508789062</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-22 04:00:00</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>0.10720546543598175</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>0.003305799327790737</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>0.5602571368217468</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>1.892100214958191</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J153" s="2" t="n">
+        <v>50.87458419799805</v>
+      </c>
+      <c r="K153" s="2" t="n">
+        <v>-1.3851773738861084</v>
+      </c>
+      <c r="L153" s="2" t="n">
+        <v>1016.224365234375</v>
+      </c>
+      <c r="M153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q153" s="2" t="n">
+        <v>8.17497444152832</v>
+      </c>
+      <c r="R153" s="2" t="n">
+        <v>14.610597610473633</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
           <t>2022-05-22 05:00:00</t>
         </is>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B154" s="2" t="n">
         <v>0.18659000098705292</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C154" s="2" t="n">
         <v>0.0033573878463357687</v>
       </c>
-      <c r="D78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G78" s="2" t="n">
+      <c r="D154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G154" s="2" t="n">
         <v>0.6842132210731506</v>
       </c>
-      <c r="H78" s="2" t="n">
+      <c r="H154" s="2" t="n">
         <v>2.08590030670166</v>
       </c>
-      <c r="I78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J78" s="2" t="n">
+      <c r="I154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J154" s="2" t="n">
         <v>50.90424728393555</v>
       </c>
-      <c r="K78" s="2" t="n">
+      <c r="K154" s="2" t="n">
         <v>-1.4288588762283325</v>
       </c>
-      <c r="L78" s="2" t="n">
+      <c r="L154" s="2" t="n">
         <v>1015.7149047851562</v>
       </c>
-      <c r="M78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O78" s="2" t="n">
+      <c r="M154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O154" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="P78" s="2" t="n">
+      <c r="P154" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q78" s="2" t="n">
+      <c r="Q154" s="2" t="n">
         <v>0.5619286298751831</v>
       </c>
-      <c r="R78" s="2" t="n">
+      <c r="R154" s="2" t="n">
         <v>16.188899993896484</v>
       </c>
     </row>
